--- a/static/Questionnaire - Request For Proposal.xlsx
+++ b/static/Questionnaire - Request For Proposal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vadzim_Kavalkou/Desktop/ASMT/ASE2-TASK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF62A84-6C5F-3D47-BEA7-5AE627E51A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B26DC-5C52-4141-8C1A-FD68A462A940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="3" xr2:uid="{535A84B0-AD2E-0441-8170-93C5AD5A451B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{535A84B0-AD2E-0441-8170-93C5AD5A451B}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="586">
   <si>
     <t>What are the key features or functionalities you expect from the system to meet your needs?</t>
   </si>
@@ -1592,12 +1592,6 @@
     <t>Per Location</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
     <t>Basic operations such as transfers, payments, support of crypto currencies.
 Typical latencies:
 - Reading 1 MB from RAM: 0.25 ms
@@ -1626,12 +1620,6 @@
   </si>
   <si>
     <t>Garanteed by data dupilication, load balancing, failover and recovery, scalability, replication, geo redundancy (Sao Paulo - Brazil, Santiago - Chile). Basing on the SLI, SLO, SLA we should calculate the Error Budget.</t>
-  </si>
-  <si>
-    <t>On-Premise (list of services)</t>
-  </si>
-  <si>
-    <t>Cloud (list of services)</t>
   </si>
   <si>
     <t>NFR-2.16</t>
@@ -1993,7 +1981,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2062,13 +2050,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -2885,7 +2866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3036,61 +3017,61 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3189,7 +3170,7 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3199,14 +3180,11 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -3234,156 +3212,150 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3393,6 +3365,171 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3421,170 +3558,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3597,12 +3575,21 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3610,15 +3597,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3978,10 +3956,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="150" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -3992,8 +3970,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="134"/>
-      <c r="B5" s="137"/>
+      <c r="A5" s="148"/>
+      <c r="B5" s="151"/>
       <c r="C5" s="56" t="s">
         <v>1</v>
       </c>
@@ -4002,8 +3980,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="134"/>
-      <c r="B6" s="137"/>
+      <c r="A6" s="148"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="56" t="s">
         <v>2</v>
       </c>
@@ -4012,8 +3990,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="134"/>
-      <c r="B7" s="138"/>
+      <c r="A7" s="148"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="56" t="s">
         <v>261</v>
       </c>
@@ -4022,8 +4000,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="134"/>
-      <c r="B8" s="139" t="s">
+      <c r="A8" s="148"/>
+      <c r="B8" s="153" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="57" t="s">
@@ -4034,8 +4012,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="134"/>
-      <c r="B9" s="140"/>
+      <c r="A9" s="148"/>
+      <c r="B9" s="154"/>
       <c r="C9" s="57" t="s">
         <v>7</v>
       </c>
@@ -4044,8 +4022,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="134"/>
-      <c r="B10" s="140"/>
+      <c r="A10" s="148"/>
+      <c r="B10" s="154"/>
       <c r="C10" s="57" t="s">
         <v>8</v>
       </c>
@@ -4054,14 +4032,14 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="134"/>
-      <c r="B11" s="141"/>
+      <c r="A11" s="148"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="134"/>
-      <c r="B12" s="142" t="s">
+      <c r="A12" s="148"/>
+      <c r="B12" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="58" t="s">
@@ -4072,8 +4050,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="134"/>
-      <c r="B13" s="143"/>
+      <c r="A13" s="148"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="58" t="s">
         <v>11</v>
       </c>
@@ -4082,8 +4060,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="134"/>
-      <c r="B14" s="143"/>
+      <c r="A14" s="148"/>
+      <c r="B14" s="157"/>
       <c r="C14" s="58" t="s">
         <v>12</v>
       </c>
@@ -4092,8 +4070,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="134"/>
-      <c r="B15" s="144"/>
+      <c r="A15" s="148"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="58" t="s">
         <v>269</v>
       </c>
@@ -4102,8 +4080,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="134"/>
-      <c r="B16" s="145" t="s">
+      <c r="A16" s="148"/>
+      <c r="B16" s="159" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -4114,8 +4092,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="134"/>
-      <c r="B17" s="146"/>
+      <c r="A17" s="148"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="59" t="s">
         <v>72</v>
       </c>
@@ -4124,16 +4102,16 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="135"/>
-      <c r="B18" s="147"/>
+      <c r="A18" s="149"/>
+      <c r="B18" s="161"/>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="141" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="60" t="s">
@@ -4144,8 +4122,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="125"/>
-      <c r="B20" s="128"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="142"/>
       <c r="C20" s="60" t="s">
         <v>22</v>
       </c>
@@ -4154,8 +4132,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="125"/>
-      <c r="B21" s="128"/>
+      <c r="A21" s="139"/>
+      <c r="B21" s="142"/>
       <c r="C21" s="60" t="s">
         <v>61</v>
       </c>
@@ -4164,8 +4142,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="125"/>
-      <c r="B22" s="128"/>
+      <c r="A22" s="139"/>
+      <c r="B22" s="142"/>
       <c r="C22" s="60" t="s">
         <v>71</v>
       </c>
@@ -4174,8 +4152,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="125"/>
-      <c r="B23" s="129"/>
+      <c r="A23" s="139"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="60" t="s">
         <v>253</v>
       </c>
@@ -4184,8 +4162,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="125"/>
-      <c r="B24" s="130" t="s">
+      <c r="A24" s="139"/>
+      <c r="B24" s="144" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="61" t="s">
@@ -4196,8 +4174,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="125"/>
-      <c r="B25" s="131"/>
+      <c r="A25" s="139"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="61" t="s">
         <v>73</v>
       </c>
@@ -4206,9 +4184,9 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="125"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="148" t="s">
+      <c r="A26" s="139"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="123" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="62" t="s">
@@ -4216,72 +4194,72 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="125"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="149"/>
+      <c r="A27" s="139"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="124"/>
       <c r="D27" s="63" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="125"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="149"/>
+      <c r="A28" s="139"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="124"/>
       <c r="D28" s="63" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="125"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="149"/>
+      <c r="A29" s="139"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="124"/>
       <c r="D29" s="63" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="125"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="149"/>
+      <c r="A30" s="139"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="124"/>
       <c r="D30" s="63" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="125"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="149"/>
+      <c r="A31" s="139"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="124"/>
       <c r="D31" s="63" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="125"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="149"/>
+      <c r="A32" s="139"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="124"/>
       <c r="D32" s="63" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="125"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="149"/>
+      <c r="A33" s="139"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="124"/>
       <c r="D33" s="63" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="125"/>
-      <c r="B34" s="131"/>
-      <c r="C34" s="150"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="125"/>
       <c r="D34" s="64" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="125"/>
-      <c r="B35" s="131"/>
+      <c r="A35" s="139"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="61" t="s">
         <v>68</v>
       </c>
@@ -4290,8 +4268,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="125"/>
-      <c r="B36" s="131"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="145"/>
       <c r="C36" s="61" t="s">
         <v>69</v>
       </c>
@@ -4300,8 +4278,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="125"/>
-      <c r="B37" s="131"/>
+      <c r="A37" s="139"/>
+      <c r="B37" s="145"/>
       <c r="C37" s="61" t="s">
         <v>26</v>
       </c>
@@ -4310,8 +4288,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="125"/>
-      <c r="B38" s="131"/>
+      <c r="A38" s="139"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="61" t="s">
         <v>27</v>
       </c>
@@ -4320,8 +4298,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="125"/>
-      <c r="B39" s="131"/>
+      <c r="A39" s="139"/>
+      <c r="B39" s="145"/>
       <c r="C39" s="61" t="s">
         <v>28</v>
       </c>
@@ -4330,8 +4308,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="125"/>
-      <c r="B40" s="131"/>
+      <c r="A40" s="139"/>
+      <c r="B40" s="145"/>
       <c r="C40" s="61" t="s">
         <v>29</v>
       </c>
@@ -4340,8 +4318,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="125"/>
-      <c r="B41" s="131"/>
+      <c r="A41" s="139"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="61" t="s">
         <v>63</v>
       </c>
@@ -4350,8 +4328,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="125"/>
-      <c r="B42" s="131"/>
+      <c r="A42" s="139"/>
+      <c r="B42" s="145"/>
       <c r="C42" s="61" t="s">
         <v>30</v>
       </c>
@@ -4360,8 +4338,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="125"/>
-      <c r="B43" s="131"/>
+      <c r="A43" s="139"/>
+      <c r="B43" s="145"/>
       <c r="C43" s="61" t="s">
         <v>31</v>
       </c>
@@ -4370,8 +4348,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="125"/>
-      <c r="B44" s="131"/>
+      <c r="A44" s="139"/>
+      <c r="B44" s="145"/>
       <c r="C44" s="61" t="s">
         <v>36</v>
       </c>
@@ -4380,8 +4358,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="125"/>
-      <c r="B45" s="131"/>
+      <c r="A45" s="139"/>
+      <c r="B45" s="145"/>
       <c r="C45" s="61" t="s">
         <v>37</v>
       </c>
@@ -4390,8 +4368,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="125"/>
-      <c r="B46" s="131"/>
+      <c r="A46" s="139"/>
+      <c r="B46" s="145"/>
       <c r="C46" s="61" t="s">
         <v>38</v>
       </c>
@@ -4400,8 +4378,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="125"/>
-      <c r="B47" s="131"/>
+      <c r="A47" s="139"/>
+      <c r="B47" s="145"/>
       <c r="C47" s="61" t="s">
         <v>67</v>
       </c>
@@ -4410,8 +4388,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="125"/>
-      <c r="B48" s="132"/>
+      <c r="A48" s="139"/>
+      <c r="B48" s="146"/>
       <c r="C48" s="61" t="s">
         <v>254</v>
       </c>
@@ -4420,11 +4398,11 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="125"/>
-      <c r="B49" s="151" t="s">
+      <c r="A49" s="139"/>
+      <c r="B49" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="154" t="s">
+      <c r="C49" s="129" t="s">
         <v>40</v>
       </c>
       <c r="D49" s="65" t="s">
@@ -4432,80 +4410,80 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="125"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="155"/>
+      <c r="A50" s="139"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="130"/>
       <c r="D50" s="66" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="125"/>
-      <c r="B51" s="152"/>
-      <c r="C51" s="155"/>
+      <c r="A51" s="139"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="130"/>
       <c r="D51" s="66" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="125"/>
-      <c r="B52" s="152"/>
-      <c r="C52" s="155"/>
+      <c r="A52" s="139"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="130"/>
       <c r="D52" s="66" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="125"/>
-      <c r="B53" s="152"/>
-      <c r="C53" s="155"/>
+      <c r="A53" s="139"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="130"/>
       <c r="D53" s="66" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="125"/>
-      <c r="B54" s="152"/>
-      <c r="C54" s="155"/>
+      <c r="A54" s="139"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="130"/>
       <c r="D54" s="66" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="125"/>
-      <c r="B55" s="152"/>
-      <c r="C55" s="155"/>
+      <c r="A55" s="139"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="130"/>
       <c r="D55" s="66" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="125"/>
-      <c r="B56" s="152"/>
-      <c r="C56" s="155"/>
+      <c r="A56" s="139"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="130"/>
       <c r="D56" s="66" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="125"/>
-      <c r="B57" s="152"/>
-      <c r="C57" s="155"/>
+      <c r="A57" s="139"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="130"/>
       <c r="D57" s="66" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="125"/>
-      <c r="B58" s="152"/>
-      <c r="C58" s="156"/>
+      <c r="A58" s="139"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="131"/>
       <c r="D58" s="67" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="125"/>
-      <c r="B59" s="152"/>
+      <c r="A59" s="139"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="68" t="s">
         <v>41</v>
       </c>
@@ -4514,8 +4492,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="125"/>
-      <c r="B60" s="152"/>
+      <c r="A60" s="139"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="68" t="s">
         <v>42</v>
       </c>
@@ -4524,8 +4502,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A61" s="125"/>
-      <c r="B61" s="152"/>
+      <c r="A61" s="139"/>
+      <c r="B61" s="127"/>
       <c r="C61" s="68" t="s">
         <v>43</v>
       </c>
@@ -4534,8 +4512,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="125"/>
-      <c r="B62" s="152"/>
+      <c r="A62" s="139"/>
+      <c r="B62" s="127"/>
       <c r="C62" s="68" t="s">
         <v>44</v>
       </c>
@@ -4544,8 +4522,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="125"/>
-      <c r="B63" s="152"/>
+      <c r="A63" s="139"/>
+      <c r="B63" s="127"/>
       <c r="C63" s="68" t="s">
         <v>45</v>
       </c>
@@ -4554,8 +4532,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="125"/>
-      <c r="B64" s="152"/>
+      <c r="A64" s="139"/>
+      <c r="B64" s="127"/>
       <c r="C64" s="68" t="s">
         <v>46</v>
       </c>
@@ -4564,8 +4542,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="125"/>
-      <c r="B65" s="152"/>
+      <c r="A65" s="139"/>
+      <c r="B65" s="127"/>
       <c r="C65" s="68" t="s">
         <v>47</v>
       </c>
@@ -4574,8 +4552,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="125"/>
-      <c r="B66" s="152"/>
+      <c r="A66" s="139"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="68" t="s">
         <v>48</v>
       </c>
@@ -4584,8 +4562,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="125"/>
-      <c r="B67" s="152"/>
+      <c r="A67" s="139"/>
+      <c r="B67" s="127"/>
       <c r="C67" s="68" t="s">
         <v>49</v>
       </c>
@@ -4594,8 +4572,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="125"/>
-      <c r="B68" s="152"/>
+      <c r="A68" s="139"/>
+      <c r="B68" s="127"/>
       <c r="C68" s="68" t="s">
         <v>50</v>
       </c>
@@ -4604,8 +4582,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="125"/>
-      <c r="B69" s="152"/>
+      <c r="A69" s="139"/>
+      <c r="B69" s="127"/>
       <c r="C69" s="68" t="s">
         <v>51</v>
       </c>
@@ -4614,14 +4592,14 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="125"/>
-      <c r="B70" s="153"/>
+      <c r="A70" s="139"/>
+      <c r="B70" s="128"/>
       <c r="C70" s="68"/>
       <c r="D70" s="68"/>
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="125"/>
-      <c r="B71" s="157" t="s">
+      <c r="A71" s="139"/>
+      <c r="B71" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C71" s="69" t="s">
@@ -4632,8 +4610,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="125"/>
-      <c r="B72" s="158"/>
+      <c r="A72" s="139"/>
+      <c r="B72" s="133"/>
       <c r="C72" s="69" t="s">
         <v>54</v>
       </c>
@@ -4642,8 +4620,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" s="125"/>
-      <c r="B73" s="158"/>
+      <c r="A73" s="139"/>
+      <c r="B73" s="133"/>
       <c r="C73" s="69" t="s">
         <v>55</v>
       </c>
@@ -4652,8 +4630,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="125"/>
-      <c r="B74" s="158"/>
+      <c r="A74" s="139"/>
+      <c r="B74" s="133"/>
       <c r="C74" s="69" t="s">
         <v>56</v>
       </c>
@@ -4662,8 +4640,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" s="125"/>
-      <c r="B75" s="158"/>
+      <c r="A75" s="139"/>
+      <c r="B75" s="133"/>
       <c r="C75" s="69" t="s">
         <v>57</v>
       </c>
@@ -4672,8 +4650,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A76" s="125"/>
-      <c r="B76" s="158"/>
+      <c r="A76" s="139"/>
+      <c r="B76" s="133"/>
       <c r="C76" s="69" t="s">
         <v>58</v>
       </c>
@@ -4682,8 +4660,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="125"/>
-      <c r="B77" s="158"/>
+      <c r="A77" s="139"/>
+      <c r="B77" s="133"/>
       <c r="C77" s="69" t="s">
         <v>23</v>
       </c>
@@ -4692,14 +4670,14 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="125"/>
-      <c r="B78" s="159"/>
+      <c r="A78" s="139"/>
+      <c r="B78" s="134"/>
       <c r="C78" s="69"/>
       <c r="D78" s="69"/>
     </row>
     <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="125"/>
-      <c r="B79" s="160" t="s">
+      <c r="A79" s="139"/>
+      <c r="B79" s="135" t="s">
         <v>59</v>
       </c>
       <c r="C79" s="70" t="s">
@@ -4710,8 +4688,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A80" s="125"/>
-      <c r="B80" s="161"/>
+      <c r="A80" s="139"/>
+      <c r="B80" s="136"/>
       <c r="C80" s="70" t="s">
         <v>35</v>
       </c>
@@ -4720,8 +4698,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A81" s="125"/>
-      <c r="B81" s="161"/>
+      <c r="A81" s="139"/>
+      <c r="B81" s="136"/>
       <c r="C81" s="70" t="s">
         <v>33</v>
       </c>
@@ -4730,8 +4708,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="125"/>
-      <c r="B82" s="161"/>
+      <c r="A82" s="139"/>
+      <c r="B82" s="136"/>
       <c r="C82" s="70" t="s">
         <v>32</v>
       </c>
@@ -4740,8 +4718,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="125"/>
-      <c r="B83" s="161"/>
+      <c r="A83" s="139"/>
+      <c r="B83" s="136"/>
       <c r="C83" s="70" t="s">
         <v>74</v>
       </c>
@@ -4750,8 +4728,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A84" s="125"/>
-      <c r="B84" s="161"/>
+      <c r="A84" s="139"/>
+      <c r="B84" s="136"/>
       <c r="C84" s="70" t="s">
         <v>333</v>
       </c>
@@ -4760,14 +4738,14 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="125"/>
-      <c r="B85" s="162"/>
+      <c r="A85" s="139"/>
+      <c r="B85" s="137"/>
       <c r="C85" s="70"/>
       <c r="D85" s="70"/>
     </row>
     <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="125"/>
-      <c r="B86" s="127" t="s">
+      <c r="A86" s="139"/>
+      <c r="B86" s="141" t="s">
         <v>64</v>
       </c>
       <c r="C86" s="60" t="s">
@@ -4778,8 +4756,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="125"/>
-      <c r="B87" s="128"/>
+      <c r="A87" s="139"/>
+      <c r="B87" s="142"/>
       <c r="C87" s="60" t="s">
         <v>62</v>
       </c>
@@ -4788,8 +4766,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="125"/>
-      <c r="B88" s="128"/>
+      <c r="A88" s="139"/>
+      <c r="B88" s="142"/>
       <c r="C88" s="60" t="s">
         <v>65</v>
       </c>
@@ -4798,8 +4776,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="126"/>
-      <c r="B89" s="129"/>
+      <c r="A89" s="140"/>
+      <c r="B89" s="143"/>
       <c r="C89" s="60" t="s">
         <v>66</v>
       </c>
@@ -4820,11 +4798,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="B49:B70"/>
-    <mergeCell ref="C49:C58"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="B79:B85"/>
     <mergeCell ref="A19:A89"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B24:B48"/>
@@ -4834,6 +4807,11 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="B49:B70"/>
+    <mergeCell ref="C49:C58"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="B79:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4841,10 +4819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C49B95-E8AA-1B4F-AB98-82DBE37139A0}">
-  <dimension ref="B7:Q108"/>
+  <dimension ref="B7:Q100"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4875,28 +4853,28 @@
       <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="164" t="s">
+      <c r="E8" s="172" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="164" t="s">
+      <c r="F8" s="172" t="s">
         <v>111</v>
       </c>
       <c r="G8" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="164" t="s">
+      <c r="H8" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="164" t="s">
+      <c r="I8" s="172" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="163"/>
+      <c r="J8" s="168"/>
       <c r="K8" s="47"/>
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
@@ -4906,16 +4884,16 @@
       <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="163"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="168"/>
       <c r="K9" s="47"/>
       <c r="L9" s="47"/>
       <c r="M9" s="47"/>
@@ -5028,20 +5006,20 @@
       <c r="C14" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="162" t="s">
         <v>454</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>445</v>
       </c>
-      <c r="F14" s="112" t="s">
+      <c r="F14" s="111" t="s">
         <v>456</v>
       </c>
       <c r="G14" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="169" t="s">
-        <v>463</v>
+      <c r="H14" s="165" t="s">
+        <v>461</v>
       </c>
       <c r="I14" s="76"/>
       <c r="J14" s="48"/>
@@ -5057,17 +5035,17 @@
       <c r="C15" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="167"/>
+      <c r="D15" s="163"/>
       <c r="E15" s="76" t="s">
         <v>446</v>
       </c>
-      <c r="F15" s="112" t="s">
+      <c r="F15" s="111" t="s">
         <v>456</v>
       </c>
       <c r="G15" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="170"/>
+      <c r="H15" s="166"/>
       <c r="I15" s="76"/>
       <c r="J15" s="48"/>
       <c r="K15" s="47"/>
@@ -5082,17 +5060,17 @@
       <c r="C16" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="167"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="F16" s="112" t="s">
+      <c r="F16" s="111" t="s">
         <v>457</v>
       </c>
       <c r="G16" s="76" t="s">
         <v>455</v>
       </c>
-      <c r="H16" s="170"/>
+      <c r="H16" s="166"/>
       <c r="I16" s="76"/>
       <c r="J16" s="48"/>
       <c r="K16" s="47"/>
@@ -5107,17 +5085,17 @@
       <c r="C17" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="167"/>
+      <c r="D17" s="163"/>
       <c r="E17" s="76" t="s">
         <v>448</v>
       </c>
-      <c r="F17" s="112" t="s">
+      <c r="F17" s="111" t="s">
         <v>458</v>
       </c>
       <c r="G17" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="170"/>
+      <c r="H17" s="166"/>
       <c r="I17" s="76"/>
       <c r="J17" s="48"/>
       <c r="K17" s="47"/>
@@ -5132,17 +5110,17 @@
       <c r="C18" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="167"/>
+      <c r="D18" s="163"/>
       <c r="E18" s="76" t="s">
         <v>449</v>
       </c>
-      <c r="F18" s="112" t="s">
+      <c r="F18" s="111" t="s">
         <v>458</v>
       </c>
       <c r="G18" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="170"/>
+      <c r="H18" s="166"/>
       <c r="I18" s="76"/>
       <c r="J18" s="48"/>
       <c r="K18" s="47"/>
@@ -5157,17 +5135,17 @@
       <c r="C19" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="167"/>
+      <c r="D19" s="163"/>
       <c r="E19" s="76" t="s">
         <v>450</v>
       </c>
-      <c r="F19" s="112" t="s">
+      <c r="F19" s="111" t="s">
         <v>459</v>
       </c>
       <c r="G19" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="170"/>
+      <c r="H19" s="166"/>
       <c r="I19" s="76"/>
       <c r="J19" s="48"/>
       <c r="K19" s="47"/>
@@ -5182,17 +5160,17 @@
       <c r="C20" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="167"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="76" t="s">
         <v>451</v>
       </c>
-      <c r="F20" s="112" t="s">
+      <c r="F20" s="111" t="s">
         <v>456</v>
       </c>
       <c r="G20" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="170"/>
+      <c r="H20" s="166"/>
       <c r="I20" s="76"/>
       <c r="J20" s="48"/>
       <c r="K20" s="47"/>
@@ -5207,17 +5185,17 @@
       <c r="C21" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="167"/>
+      <c r="D21" s="163"/>
       <c r="E21" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="F21" s="112" t="s">
+      <c r="F21" s="111" t="s">
         <v>458</v>
       </c>
       <c r="G21" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="170"/>
+      <c r="H21" s="166"/>
       <c r="I21" s="76"/>
       <c r="J21" s="48"/>
       <c r="K21" s="47"/>
@@ -5232,17 +5210,17 @@
       <c r="C22" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="167"/>
+      <c r="D22" s="163"/>
       <c r="E22" s="75" t="s">
-        <v>477</v>
-      </c>
-      <c r="F22" s="112" t="s">
-        <v>475</v>
+        <v>473</v>
+      </c>
+      <c r="F22" s="111" t="s">
+        <v>471</v>
       </c>
       <c r="G22" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="170"/>
+      <c r="H22" s="166"/>
       <c r="I22" s="76"/>
       <c r="J22" s="48"/>
       <c r="K22" s="47"/>
@@ -5257,17 +5235,17 @@
       <c r="C23" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="167"/>
+      <c r="D23" s="163"/>
       <c r="E23" s="75" t="s">
-        <v>476</v>
-      </c>
-      <c r="F23" s="112" t="s">
+        <v>472</v>
+      </c>
+      <c r="F23" s="111" t="s">
         <v>458</v>
       </c>
       <c r="G23" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="170"/>
+      <c r="H23" s="166"/>
       <c r="I23" s="76"/>
       <c r="J23" s="48"/>
       <c r="K23" s="47"/>
@@ -5282,17 +5260,17 @@
       <c r="C24" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="167"/>
+      <c r="D24" s="163"/>
       <c r="E24" s="75" t="s">
-        <v>478</v>
-      </c>
-      <c r="F24" s="112" t="s">
-        <v>479</v>
+        <v>474</v>
+      </c>
+      <c r="F24" s="111" t="s">
+        <v>475</v>
       </c>
       <c r="G24" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="H24" s="171"/>
+      <c r="H24" s="167"/>
       <c r="I24" s="76"/>
       <c r="J24" s="48"/>
       <c r="K24" s="47"/>
@@ -5307,11 +5285,11 @@
       <c r="C25" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="168"/>
+      <c r="D25" s="164"/>
       <c r="E25" s="76" t="s">
         <v>453</v>
       </c>
-      <c r="F25" s="112" t="s">
+      <c r="F25" s="111" t="s">
         <v>300</v>
       </c>
       <c r="G25" s="76" t="s">
@@ -5334,16 +5312,16 @@
       <c r="C26" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="166" t="s">
+      <c r="D26" s="162" t="s">
         <v>137</v>
       </c>
       <c r="E26" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="166" t="s">
+      <c r="F26" s="162" t="s">
         <v>139</v>
       </c>
-      <c r="G26" s="166" t="s">
+      <c r="G26" s="162" t="s">
         <v>140</v>
       </c>
       <c r="H26" s="76" t="s">
@@ -5363,17 +5341,17 @@
       <c r="C27" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="167"/>
+      <c r="D27" s="163"/>
       <c r="E27" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
       <c r="H27" s="76" t="s">
         <v>444</v>
       </c>
-      <c r="I27" s="172"/>
-      <c r="J27" s="163"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="168"/>
       <c r="K27" s="47"/>
       <c r="L27" s="47"/>
       <c r="M27" s="47"/>
@@ -5384,19 +5362,19 @@
     </row>
     <row r="28" spans="3:17" ht="34" x14ac:dyDescent="0.2">
       <c r="C28" s="77" t="s">
-        <v>473</v>
-      </c>
-      <c r="D28" s="167"/>
+        <v>469</v>
+      </c>
+      <c r="D28" s="163"/>
       <c r="E28" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
       <c r="H28" s="76" t="s">
         <v>383</v>
       </c>
-      <c r="I28" s="173"/>
-      <c r="J28" s="163"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="168"/>
       <c r="K28" s="47"/>
       <c r="L28" s="47"/>
       <c r="M28" s="47"/>
@@ -5407,19 +5385,19 @@
     </row>
     <row r="29" spans="3:17" ht="17" x14ac:dyDescent="0.2">
       <c r="C29" s="77" t="s">
-        <v>474</v>
-      </c>
-      <c r="D29" s="167"/>
+        <v>470</v>
+      </c>
+      <c r="D29" s="163"/>
       <c r="E29" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
       <c r="H29" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="I29" s="174"/>
-      <c r="J29" s="163"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="168"/>
       <c r="K29" s="47"/>
       <c r="L29" s="47"/>
       <c r="M29" s="47"/>
@@ -5442,7 +5420,7 @@
         <v>150</v>
       </c>
       <c r="I30" s="79"/>
-      <c r="J30" s="163"/>
+      <c r="J30" s="168"/>
       <c r="K30" s="47"/>
       <c r="L30" s="47"/>
       <c r="M30" s="47"/>
@@ -5465,7 +5443,7 @@
         <v>433</v>
       </c>
       <c r="I31" s="79"/>
-      <c r="J31" s="163"/>
+      <c r="J31" s="168"/>
       <c r="K31" s="47"/>
       <c r="L31" s="47"/>
       <c r="M31" s="47"/>
@@ -5488,7 +5466,7 @@
         <v>435</v>
       </c>
       <c r="I32" s="79"/>
-      <c r="J32" s="163"/>
+      <c r="J32" s="168"/>
       <c r="K32" s="47"/>
       <c r="L32" s="47"/>
       <c r="M32" s="47"/>
@@ -5768,18 +5746,20 @@
       <c r="P43" s="47"/>
       <c r="Q43" s="47"/>
     </row>
-    <row r="44" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C44" s="84"/>
-      <c r="D44" s="111" t="s">
-        <v>461</v>
-      </c>
-      <c r="E44" s="84" t="s">
-        <v>471</v>
-      </c>
-      <c r="F44" s="85"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
+    <row r="44" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C44" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="I44" s="87"/>
       <c r="J44" s="48"/>
       <c r="K44" s="47"/>
       <c r="L44" s="47"/>
@@ -5790,15 +5770,19 @@
       <c r="Q44" s="47"/>
     </row>
     <row r="45" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84" t="s">
-        <v>472</v>
-      </c>
-      <c r="F45" s="85"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
+      <c r="C45" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="I45" s="87"/>
       <c r="J45" s="48"/>
       <c r="K45" s="47"/>
       <c r="L45" s="47"/>
@@ -5808,14 +5792,20 @@
       <c r="P45" s="47"/>
       <c r="Q45" s="47"/>
     </row>
-    <row r="46" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
+    <row r="46" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C46" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="I46" s="87"/>
       <c r="J46" s="48"/>
       <c r="K46" s="47"/>
       <c r="L46" s="47"/>
@@ -5825,14 +5815,20 @@
       <c r="P46" s="47"/>
       <c r="Q46" s="47"/>
     </row>
-    <row r="47" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
+    <row r="47" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C47" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="I47" s="87"/>
       <c r="J47" s="48"/>
       <c r="K47" s="47"/>
       <c r="L47" s="47"/>
@@ -5842,14 +5838,20 @@
       <c r="P47" s="47"/>
       <c r="Q47" s="47"/>
     </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
+    <row r="48" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C48" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="I48" s="87"/>
       <c r="J48" s="48"/>
       <c r="K48" s="47"/>
       <c r="L48" s="47"/>
@@ -5859,14 +5861,20 @@
       <c r="P48" s="47"/>
       <c r="Q48" s="47"/>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
+    <row r="49" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C49" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87" t="s">
+        <v>463</v>
+      </c>
+      <c r="I49" s="87"/>
       <c r="J49" s="48"/>
       <c r="K49" s="47"/>
       <c r="L49" s="47"/>
@@ -5876,14 +5884,20 @@
       <c r="P49" s="47"/>
       <c r="Q49" s="47"/>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
+    <row r="50" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C50" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="I50" s="87"/>
       <c r="J50" s="48"/>
       <c r="K50" s="47"/>
       <c r="L50" s="47"/>
@@ -5893,16 +5907,20 @@
       <c r="P50" s="47"/>
       <c r="Q50" s="47"/>
     </row>
-    <row r="51" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C51" s="84"/>
-      <c r="D51" s="111" t="s">
-        <v>462</v>
-      </c>
-      <c r="E51" s="84"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="84"/>
+    <row r="51" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C51" s="87" t="s">
+        <v>464</v>
+      </c>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87" t="s">
+        <v>465</v>
+      </c>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87" t="s">
+        <v>466</v>
+      </c>
+      <c r="I51" s="87"/>
       <c r="J51" s="48"/>
       <c r="K51" s="47"/>
       <c r="L51" s="47"/>
@@ -5912,20 +5930,20 @@
       <c r="P51" s="47"/>
       <c r="Q51" s="47"/>
     </row>
-    <row r="52" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C52" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="D52" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="86" t="s">
-        <v>170</v>
-      </c>
-      <c r="I52" s="87"/>
+    <row r="52" spans="3:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="88" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="I52" s="90"/>
       <c r="J52" s="48"/>
       <c r="K52" s="47"/>
       <c r="L52" s="47"/>
@@ -5935,221 +5953,225 @@
       <c r="P52" s="47"/>
       <c r="Q52" s="47"/>
     </row>
-    <row r="53" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C53" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87" t="s">
-        <v>464</v>
-      </c>
-      <c r="I53" s="87"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
+    <row r="53" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C53" s="90" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="90" t="s">
+        <v>398</v>
+      </c>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90" t="s">
+        <v>476</v>
+      </c>
+      <c r="I53" s="89"/>
+      <c r="P53" s="48"/>
       <c r="Q53" s="47"/>
     </row>
     <row r="54" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C54" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87" t="s">
-        <v>174</v>
-      </c>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87" t="s">
-        <v>175</v>
-      </c>
-      <c r="I54" s="87"/>
+      <c r="C54" s="90" t="s">
+        <v>391</v>
+      </c>
+      <c r="D54" s="90" t="s">
+        <v>362</v>
+      </c>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90" t="s">
+        <v>395</v>
+      </c>
+      <c r="I54" s="91"/>
       <c r="J54" s="48"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
       <c r="Q54" s="47"/>
     </row>
-    <row r="55" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C55" s="87" t="s">
-        <v>176</v>
-      </c>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87" t="s">
-        <v>178</v>
-      </c>
-      <c r="I55" s="87"/>
+    <row r="55" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C55" s="109" t="s">
+        <v>392</v>
+      </c>
+      <c r="D55" s="90" t="s">
+        <v>363</v>
+      </c>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90" t="s">
+        <v>396</v>
+      </c>
+      <c r="I55" s="89"/>
       <c r="J55" s="48"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="47"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
       <c r="Q55" s="47"/>
     </row>
-    <row r="56" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C56" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87" t="s">
-        <v>181</v>
-      </c>
-      <c r="I56" s="87"/>
+    <row r="56" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C56" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="D56" s="90" t="s">
+        <v>364</v>
+      </c>
+      <c r="E56" s="90"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="90" t="s">
+        <v>397</v>
+      </c>
+      <c r="I56" s="91"/>
       <c r="J56" s="48"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
       <c r="Q56" s="47"/>
     </row>
-    <row r="57" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C57" s="87" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87" t="s">
-        <v>183</v>
-      </c>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87" t="s">
-        <v>465</v>
-      </c>
-      <c r="I57" s="87"/>
+    <row r="57" spans="3:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="C57" s="109" t="s">
+        <v>394</v>
+      </c>
+      <c r="D57" s="90" t="s">
+        <v>390</v>
+      </c>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90" t="s">
+        <v>467</v>
+      </c>
+      <c r="I57" s="90"/>
       <c r="J57" s="48"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="47"/>
-      <c r="P57" s="47"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
       <c r="Q57" s="47"/>
     </row>
-    <row r="58" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C58" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87" t="s">
-        <v>185</v>
-      </c>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="I58" s="87"/>
+    <row r="58" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C58" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="I58" s="99"/>
       <c r="J58" s="48"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="47"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
       <c r="Q58" s="47"/>
     </row>
-    <row r="59" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C59" s="87" t="s">
-        <v>466</v>
-      </c>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87" t="s">
-        <v>467</v>
-      </c>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87" t="s">
-        <v>468</v>
-      </c>
-      <c r="I59" s="87"/>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C59" s="99"/>
+      <c r="D59" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="99"/>
       <c r="J59" s="48"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
       <c r="Q59" s="47"/>
     </row>
-    <row r="60" spans="3:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="88" t="s">
-        <v>188</v>
-      </c>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="88" t="s">
-        <v>189</v>
-      </c>
-      <c r="I60" s="90"/>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C60" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="102" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" s="99"/>
+      <c r="F60" s="100" t="s">
+        <v>196</v>
+      </c>
+      <c r="G60" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="H60" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="I60" s="99"/>
       <c r="J60" s="48"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="47"/>
-      <c r="P60" s="47"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
       <c r="Q60" s="47"/>
     </row>
-    <row r="61" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C61" s="90" t="s">
-        <v>190</v>
-      </c>
-      <c r="D61" s="90" t="s">
-        <v>398</v>
-      </c>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="90" t="s">
-        <v>480</v>
-      </c>
-      <c r="I61" s="89"/>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C61" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99">
+        <v>100</v>
+      </c>
+      <c r="G61" s="107"/>
+      <c r="H61" s="99" t="s">
+        <v>354</v>
+      </c>
+      <c r="I61" s="99"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
       <c r="P61" s="48"/>
       <c r="Q61" s="47"/>
     </row>
     <row r="62" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C62" s="90" t="s">
-        <v>391</v>
-      </c>
-      <c r="D62" s="90" t="s">
-        <v>362</v>
-      </c>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90" t="s">
-        <v>395</v>
-      </c>
-      <c r="I62" s="91"/>
+      <c r="C62" s="99" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="E62" s="99"/>
+      <c r="F62" s="100" t="s">
+        <v>196</v>
+      </c>
+      <c r="G62" s="107"/>
+      <c r="H62" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="I62" s="99"/>
       <c r="J62" s="48"/>
       <c r="K62" s="48"/>
       <c r="L62" s="48"/>
@@ -6159,20 +6181,22 @@
       <c r="P62" s="48"/>
       <c r="Q62" s="47"/>
     </row>
-    <row r="63" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C63" s="109" t="s">
-        <v>392</v>
-      </c>
-      <c r="D63" s="90" t="s">
-        <v>363</v>
-      </c>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90" t="s">
-        <v>396</v>
-      </c>
-      <c r="I63" s="89"/>
+    <row r="63" spans="3:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99">
+        <v>100</v>
+      </c>
+      <c r="G63" s="107"/>
+      <c r="H63" s="99" t="s">
+        <v>356</v>
+      </c>
+      <c r="I63" s="99"/>
       <c r="J63" s="48"/>
       <c r="K63" s="48"/>
       <c r="L63" s="48"/>
@@ -6182,20 +6206,22 @@
       <c r="P63" s="48"/>
       <c r="Q63" s="47"/>
     </row>
-    <row r="64" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C64" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="D64" s="90" t="s">
-        <v>364</v>
-      </c>
-      <c r="E64" s="90"/>
-      <c r="F64" s="92"/>
-      <c r="G64" s="90"/>
-      <c r="H64" s="90" t="s">
-        <v>397</v>
-      </c>
-      <c r="I64" s="91"/>
+    <row r="64" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C64" s="99" t="s">
+        <v>349</v>
+      </c>
+      <c r="D64" s="71" t="s">
+        <v>400</v>
+      </c>
+      <c r="E64" s="99"/>
+      <c r="F64" s="100" t="s">
+        <v>401</v>
+      </c>
+      <c r="G64" s="107"/>
+      <c r="H64" s="99" t="s">
+        <v>355</v>
+      </c>
+      <c r="I64" s="99"/>
       <c r="J64" s="48"/>
       <c r="K64" s="48"/>
       <c r="L64" s="48"/>
@@ -6205,20 +6231,22 @@
       <c r="P64" s="48"/>
       <c r="Q64" s="47"/>
     </row>
-    <row r="65" spans="3:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="C65" s="109" t="s">
-        <v>394</v>
-      </c>
-      <c r="D65" s="90" t="s">
-        <v>390</v>
-      </c>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="90"/>
-      <c r="H65" s="90" t="s">
-        <v>469</v>
-      </c>
-      <c r="I65" s="90"/>
+    <row r="65" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C65" s="99" t="s">
+        <v>352</v>
+      </c>
+      <c r="D65" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99">
+        <v>100</v>
+      </c>
+      <c r="G65" s="107"/>
+      <c r="H65" s="99" t="s">
+        <v>357</v>
+      </c>
+      <c r="I65" s="99"/>
       <c r="J65" s="48"/>
       <c r="K65" s="48"/>
       <c r="L65" s="48"/>
@@ -6228,18 +6256,20 @@
       <c r="P65" s="48"/>
       <c r="Q65" s="47"/>
     </row>
-    <row r="66" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C66" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="93" t="s">
-        <v>194</v>
+    <row r="66" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="99" t="s">
+        <v>353</v>
+      </c>
+      <c r="D66" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E66" s="99"/>
+      <c r="F66" s="103">
+        <v>100</v>
+      </c>
+      <c r="G66" s="107"/>
+      <c r="H66" s="99" t="s">
+        <v>360</v>
       </c>
       <c r="I66" s="99"/>
       <c r="J66" s="48"/>
@@ -6251,15 +6281,21 @@
       <c r="P66" s="48"/>
       <c r="Q66" s="47"/>
     </row>
-    <row r="67" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C67" s="99"/>
-      <c r="D67" s="102" t="s">
-        <v>250</v>
+    <row r="67" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C67" s="99" t="s">
+        <v>358</v>
+      </c>
+      <c r="D67" s="71" t="s">
+        <v>359</v>
       </c>
       <c r="E67" s="99"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="99"/>
+      <c r="F67" s="103">
+        <v>100</v>
+      </c>
+      <c r="G67" s="108"/>
+      <c r="H67" s="99" t="s">
+        <v>361</v>
+      </c>
       <c r="I67" s="99"/>
       <c r="J67" s="48"/>
       <c r="K67" s="48"/>
@@ -6270,99 +6306,89 @@
       <c r="P67" s="48"/>
       <c r="Q67" s="47"/>
     </row>
-    <row r="68" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C68" s="99" t="s">
-        <v>195</v>
-      </c>
-      <c r="D68" s="102" t="s">
-        <v>199</v>
-      </c>
-      <c r="E68" s="99"/>
-      <c r="F68" s="100" t="s">
-        <v>196</v>
-      </c>
-      <c r="G68" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="H68" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="I68" s="99"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="48"/>
-      <c r="P68" s="48"/>
+    <row r="68" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C68" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="I68" s="95"/>
+      <c r="J68" s="168"/>
+      <c r="K68" s="168"/>
+      <c r="L68" s="168"/>
+      <c r="M68" s="168"/>
+      <c r="N68" s="168"/>
+      <c r="O68" s="168"/>
+      <c r="P68" s="168"/>
       <c r="Q68" s="47"/>
     </row>
-    <row r="69" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C69" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="D69" s="102" t="s">
-        <v>201</v>
-      </c>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99">
-        <v>100</v>
-      </c>
-      <c r="G69" s="107"/>
-      <c r="H69" s="99" t="s">
-        <v>354</v>
-      </c>
-      <c r="I69" s="99"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="48"/>
-      <c r="P69" s="48"/>
+    <row r="69" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C69" s="95" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69" s="95"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="95" t="s">
+        <v>347</v>
+      </c>
+      <c r="I69" s="95"/>
+      <c r="J69" s="168"/>
+      <c r="K69" s="168"/>
+      <c r="L69" s="168"/>
+      <c r="M69" s="168"/>
+      <c r="N69" s="168"/>
+      <c r="O69" s="168"/>
+      <c r="P69" s="168"/>
       <c r="Q69" s="47"/>
     </row>
-    <row r="70" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C70" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="D70" s="71" t="s">
-        <v>251</v>
-      </c>
-      <c r="E70" s="99"/>
-      <c r="F70" s="100" t="s">
-        <v>196</v>
-      </c>
-      <c r="G70" s="107"/>
-      <c r="H70" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="I70" s="99"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="48"/>
-      <c r="P70" s="48"/>
+    <row r="70" spans="3:17" ht="136" x14ac:dyDescent="0.2">
+      <c r="C70" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" s="95"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="95"/>
+      <c r="H70" s="95" t="s">
+        <v>344</v>
+      </c>
+      <c r="I70" s="95"/>
+      <c r="J70" s="168"/>
+      <c r="K70" s="168"/>
+      <c r="L70" s="168"/>
+      <c r="M70" s="168"/>
+      <c r="N70" s="168"/>
+      <c r="O70" s="168"/>
+      <c r="P70" s="168"/>
       <c r="Q70" s="47"/>
     </row>
-    <row r="71" spans="3:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="99" t="s">
-        <v>202</v>
-      </c>
-      <c r="D71" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="E71" s="99"/>
-      <c r="F71" s="99">
-        <v>100</v>
-      </c>
-      <c r="G71" s="107"/>
-      <c r="H71" s="99" t="s">
-        <v>356</v>
-      </c>
-      <c r="I71" s="99"/>
+    <row r="71" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C71" s="95" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71" s="95" t="s">
+        <v>211</v>
+      </c>
+      <c r="E71" s="95"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="I71" s="95"/>
       <c r="J71" s="48"/>
       <c r="K71" s="48"/>
       <c r="L71" s="48"/>
@@ -6373,21 +6399,19 @@
       <c r="Q71" s="47"/>
     </row>
     <row r="72" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C72" s="99" t="s">
-        <v>349</v>
-      </c>
-      <c r="D72" s="71" t="s">
-        <v>400</v>
-      </c>
-      <c r="E72" s="99"/>
-      <c r="F72" s="100" t="s">
-        <v>401</v>
-      </c>
-      <c r="G72" s="107"/>
-      <c r="H72" s="99" t="s">
-        <v>355</v>
-      </c>
-      <c r="I72" s="99"/>
+      <c r="C72" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" s="95"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="95" t="s">
+        <v>215</v>
+      </c>
+      <c r="I72" s="95"/>
       <c r="J72" s="48"/>
       <c r="K72" s="48"/>
       <c r="L72" s="48"/>
@@ -6397,164 +6421,158 @@
       <c r="P72" s="48"/>
       <c r="Q72" s="47"/>
     </row>
-    <row r="73" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C73" s="99" t="s">
-        <v>352</v>
-      </c>
-      <c r="D73" s="71" t="s">
-        <v>351</v>
-      </c>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99">
-        <v>100</v>
-      </c>
-      <c r="G73" s="107"/>
-      <c r="H73" s="99" t="s">
-        <v>357</v>
-      </c>
-      <c r="I73" s="99"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="48"/>
-      <c r="L73" s="48"/>
-      <c r="M73" s="48"/>
-      <c r="N73" s="48"/>
-      <c r="O73" s="48"/>
-      <c r="P73" s="48"/>
+    <row r="73" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C73" s="95" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" s="95" t="s">
+        <v>217</v>
+      </c>
+      <c r="E73" s="95"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="95"/>
+      <c r="H73" s="95" t="s">
+        <v>346</v>
+      </c>
+      <c r="I73" s="95"/>
+      <c r="J73" s="168"/>
+      <c r="K73" s="168"/>
+      <c r="L73" s="168"/>
+      <c r="M73" s="168"/>
+      <c r="N73" s="168"/>
+      <c r="O73" s="168"/>
+      <c r="P73" s="168"/>
       <c r="Q73" s="47"/>
     </row>
-    <row r="74" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="99" t="s">
-        <v>353</v>
-      </c>
-      <c r="D74" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="E74" s="99"/>
-      <c r="F74" s="103">
-        <v>100</v>
-      </c>
-      <c r="G74" s="107"/>
-      <c r="H74" s="99" t="s">
-        <v>360</v>
-      </c>
-      <c r="I74" s="99"/>
-      <c r="J74" s="48"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="48"/>
-      <c r="M74" s="48"/>
-      <c r="N74" s="48"/>
-      <c r="O74" s="48"/>
-      <c r="P74" s="48"/>
+    <row r="74" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C74" s="95" t="s">
+        <v>216</v>
+      </c>
+      <c r="D74" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="95" t="s">
+        <v>345</v>
+      </c>
+      <c r="I74" s="95"/>
+      <c r="J74" s="168"/>
+      <c r="K74" s="168"/>
+      <c r="L74" s="168"/>
+      <c r="M74" s="168"/>
+      <c r="N74" s="168"/>
+      <c r="O74" s="168"/>
+      <c r="P74" s="168"/>
       <c r="Q74" s="47"/>
     </row>
-    <row r="75" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C75" s="99" t="s">
-        <v>358</v>
-      </c>
-      <c r="D75" s="71" t="s">
-        <v>359</v>
-      </c>
-      <c r="E75" s="99"/>
-      <c r="F75" s="103">
-        <v>100</v>
-      </c>
-      <c r="G75" s="108"/>
-      <c r="H75" s="99" t="s">
-        <v>361</v>
-      </c>
-      <c r="I75" s="99"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="48"/>
-      <c r="L75" s="48"/>
-      <c r="M75" s="48"/>
-      <c r="N75" s="48"/>
-      <c r="O75" s="48"/>
-      <c r="P75" s="48"/>
+    <row r="75" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C75" s="95" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" s="95" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" s="95"/>
+      <c r="F75" s="95"/>
+      <c r="G75" s="95"/>
+      <c r="H75" s="95" t="s">
+        <v>399</v>
+      </c>
+      <c r="I75" s="95"/>
+      <c r="J75" s="168"/>
+      <c r="K75" s="168"/>
+      <c r="L75" s="168"/>
+      <c r="M75" s="168"/>
+      <c r="N75" s="168"/>
+      <c r="O75" s="168"/>
+      <c r="P75" s="168"/>
       <c r="Q75" s="47"/>
     </row>
-    <row r="76" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C76" s="94" t="s">
-        <v>203</v>
-      </c>
-      <c r="D76" s="94" t="s">
-        <v>204</v>
+    <row r="76" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C76" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="D76" s="95" t="s">
+        <v>386</v>
       </c>
       <c r="E76" s="95"/>
       <c r="F76" s="95"/>
       <c r="G76" s="95"/>
-      <c r="H76" s="94" t="s">
-        <v>205</v>
+      <c r="H76" s="95" t="s">
+        <v>404</v>
       </c>
       <c r="I76" s="95"/>
-      <c r="J76" s="163"/>
-      <c r="K76" s="163"/>
-      <c r="L76" s="163"/>
-      <c r="M76" s="163"/>
-      <c r="N76" s="163"/>
-      <c r="O76" s="163"/>
-      <c r="P76" s="163"/>
+      <c r="J76" s="168"/>
+      <c r="K76" s="168"/>
+      <c r="L76" s="168"/>
+      <c r="M76" s="168"/>
+      <c r="N76" s="168"/>
+      <c r="O76" s="168"/>
+      <c r="P76" s="168"/>
       <c r="Q76" s="47"/>
     </row>
-    <row r="77" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:17" ht="17" x14ac:dyDescent="0.2">
       <c r="C77" s="95" t="s">
-        <v>206</v>
+        <v>385</v>
       </c>
       <c r="D77" s="95" t="s">
-        <v>207</v>
+        <v>402</v>
       </c>
       <c r="E77" s="95"/>
       <c r="F77" s="95"/>
       <c r="G77" s="95"/>
       <c r="H77" s="95" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="I77" s="95"/>
-      <c r="J77" s="163"/>
-      <c r="K77" s="163"/>
-      <c r="L77" s="163"/>
-      <c r="M77" s="163"/>
-      <c r="N77" s="163"/>
-      <c r="O77" s="163"/>
-      <c r="P77" s="163"/>
+      <c r="J77" s="168"/>
+      <c r="K77" s="168"/>
+      <c r="L77" s="168"/>
+      <c r="M77" s="168"/>
+      <c r="N77" s="168"/>
+      <c r="O77" s="168"/>
+      <c r="P77" s="168"/>
       <c r="Q77" s="47"/>
     </row>
-    <row r="78" spans="3:17" ht="136" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:17" ht="34" x14ac:dyDescent="0.2">
       <c r="C78" s="95" t="s">
-        <v>208</v>
+        <v>388</v>
       </c>
       <c r="D78" s="95" t="s">
-        <v>209</v>
+        <v>387</v>
       </c>
       <c r="E78" s="95"/>
       <c r="F78" s="95"/>
       <c r="G78" s="95"/>
       <c r="H78" s="95" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="I78" s="95"/>
-      <c r="J78" s="163"/>
-      <c r="K78" s="163"/>
-      <c r="L78" s="163"/>
-      <c r="M78" s="163"/>
-      <c r="N78" s="163"/>
-      <c r="O78" s="163"/>
-      <c r="P78" s="163"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="48"/>
+      <c r="L78" s="48"/>
+      <c r="M78" s="48"/>
+      <c r="N78" s="48"/>
+      <c r="O78" s="48"/>
+      <c r="P78" s="48"/>
       <c r="Q78" s="47"/>
     </row>
-    <row r="79" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C79" s="95" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" s="95" t="s">
-        <v>211</v>
-      </c>
-      <c r="E79" s="95"/>
-      <c r="F79" s="95"/>
-      <c r="G79" s="95"/>
-      <c r="H79" s="95" t="s">
-        <v>212</v>
-      </c>
-      <c r="I79" s="95"/>
+    <row r="79" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C79" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="I79" s="97"/>
       <c r="J79" s="48"/>
       <c r="K79" s="48"/>
       <c r="L79" s="48"/>
@@ -6565,520 +6583,370 @@
       <c r="Q79" s="47"/>
     </row>
     <row r="80" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C80" s="95" t="s">
-        <v>213</v>
-      </c>
-      <c r="D80" s="95" t="s">
-        <v>214</v>
-      </c>
-      <c r="E80" s="95"/>
-      <c r="F80" s="95"/>
-      <c r="G80" s="95"/>
-      <c r="H80" s="95" t="s">
-        <v>215</v>
-      </c>
-      <c r="I80" s="95"/>
-      <c r="J80" s="48"/>
-      <c r="K80" s="48"/>
-      <c r="L80" s="48"/>
-      <c r="M80" s="48"/>
-      <c r="N80" s="48"/>
-      <c r="O80" s="48"/>
-      <c r="P80" s="48"/>
+      <c r="C80" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="D80" s="97" t="s">
+        <v>372</v>
+      </c>
+      <c r="E80" s="97" t="s">
+        <v>376</v>
+      </c>
+      <c r="F80" s="97"/>
+      <c r="G80" s="97" t="s">
+        <v>374</v>
+      </c>
+      <c r="H80" s="97" t="s">
+        <v>377</v>
+      </c>
+      <c r="I80" s="97"/>
+      <c r="J80" s="168"/>
+      <c r="K80" s="168"/>
+      <c r="L80" s="168"/>
+      <c r="M80" s="168"/>
+      <c r="N80" s="168"/>
+      <c r="O80" s="168"/>
+      <c r="P80" s="168"/>
       <c r="Q80" s="47"/>
     </row>
-    <row r="81" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C81" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="D81" s="95" t="s">
-        <v>217</v>
-      </c>
-      <c r="E81" s="95"/>
-      <c r="F81" s="95"/>
-      <c r="G81" s="95"/>
-      <c r="H81" s="95" t="s">
-        <v>346</v>
-      </c>
-      <c r="I81" s="95"/>
-      <c r="J81" s="163"/>
-      <c r="K81" s="163"/>
-      <c r="L81" s="163"/>
-      <c r="M81" s="163"/>
-      <c r="N81" s="163"/>
-      <c r="O81" s="163"/>
-      <c r="P81" s="163"/>
+    <row r="81" spans="3:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="C81" s="97" t="s">
+        <v>224</v>
+      </c>
+      <c r="D81" s="97" t="s">
+        <v>373</v>
+      </c>
+      <c r="E81" s="97" t="s">
+        <v>371</v>
+      </c>
+      <c r="F81" s="97"/>
+      <c r="G81" s="97" t="s">
+        <v>374</v>
+      </c>
+      <c r="H81" s="97" t="s">
+        <v>375</v>
+      </c>
+      <c r="I81" s="97"/>
+      <c r="J81" s="168"/>
+      <c r="K81" s="168"/>
+      <c r="L81" s="168"/>
+      <c r="M81" s="168"/>
+      <c r="N81" s="168"/>
+      <c r="O81" s="168"/>
+      <c r="P81" s="168"/>
       <c r="Q81" s="47"/>
     </row>
     <row r="82" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C82" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="D82" s="95" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" s="95"/>
-      <c r="F82" s="95"/>
-      <c r="G82" s="95"/>
-      <c r="H82" s="95" t="s">
-        <v>345</v>
-      </c>
-      <c r="I82" s="95"/>
-      <c r="J82" s="163"/>
-      <c r="K82" s="163"/>
-      <c r="L82" s="163"/>
-      <c r="M82" s="163"/>
-      <c r="N82" s="163"/>
-      <c r="O82" s="163"/>
-      <c r="P82" s="163"/>
+      <c r="C82" s="97" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82" s="97" t="s">
+        <v>378</v>
+      </c>
+      <c r="E82" s="97"/>
+      <c r="F82" s="97"/>
+      <c r="G82" s="97"/>
+      <c r="H82" s="97" t="s">
+        <v>379</v>
+      </c>
+      <c r="I82" s="97"/>
+      <c r="J82" s="168"/>
+      <c r="K82" s="168"/>
+      <c r="L82" s="168"/>
+      <c r="M82" s="168"/>
+      <c r="N82" s="168"/>
+      <c r="O82" s="168"/>
+      <c r="P82" s="168"/>
       <c r="Q82" s="47"/>
     </row>
-    <row r="83" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C83" s="95" t="s">
-        <v>219</v>
-      </c>
-      <c r="D83" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="E83" s="95"/>
-      <c r="F83" s="95"/>
-      <c r="G83" s="95"/>
-      <c r="H83" s="95" t="s">
-        <v>399</v>
-      </c>
-      <c r="I83" s="95"/>
-      <c r="J83" s="163"/>
-      <c r="K83" s="163"/>
-      <c r="L83" s="163"/>
-      <c r="M83" s="163"/>
-      <c r="N83" s="163"/>
-      <c r="O83" s="163"/>
-      <c r="P83" s="163"/>
+    <row r="83" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C83" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" s="97" t="s">
+        <v>381</v>
+      </c>
+      <c r="E83" s="97"/>
+      <c r="F83" s="97"/>
+      <c r="G83" s="97"/>
+      <c r="H83" s="97" t="s">
+        <v>380</v>
+      </c>
+      <c r="I83" s="97"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="48"/>
+      <c r="L83" s="48"/>
+      <c r="M83" s="48"/>
+      <c r="N83" s="48"/>
+      <c r="O83" s="48"/>
+      <c r="P83" s="48"/>
       <c r="Q83" s="47"/>
     </row>
     <row r="84" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C84" s="95" t="s">
-        <v>384</v>
-      </c>
-      <c r="D84" s="95" t="s">
-        <v>386</v>
-      </c>
-      <c r="E84" s="95"/>
-      <c r="F84" s="95"/>
-      <c r="G84" s="95"/>
-      <c r="H84" s="95" t="s">
-        <v>404</v>
-      </c>
-      <c r="I84" s="95"/>
-      <c r="J84" s="163"/>
-      <c r="K84" s="163"/>
-      <c r="L84" s="163"/>
-      <c r="M84" s="163"/>
-      <c r="N84" s="163"/>
-      <c r="O84" s="163"/>
-      <c r="P84" s="163"/>
-      <c r="Q84" s="47"/>
-    </row>
-    <row r="85" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C85" s="95" t="s">
-        <v>385</v>
-      </c>
-      <c r="D85" s="95" t="s">
-        <v>402</v>
-      </c>
-      <c r="E85" s="95"/>
-      <c r="F85" s="95"/>
-      <c r="G85" s="95"/>
-      <c r="H85" s="95" t="s">
-        <v>403</v>
-      </c>
-      <c r="I85" s="95"/>
-      <c r="J85" s="163"/>
-      <c r="K85" s="163"/>
-      <c r="L85" s="163"/>
-      <c r="M85" s="163"/>
-      <c r="N85" s="163"/>
-      <c r="O85" s="163"/>
-      <c r="P85" s="163"/>
-      <c r="Q85" s="47"/>
+      <c r="C84" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="E84" s="97"/>
+      <c r="F84" s="97"/>
+      <c r="G84" s="97"/>
+      <c r="H84" s="97" t="s">
+        <v>348</v>
+      </c>
+      <c r="I84" s="97"/>
+    </row>
+    <row r="85" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C85" s="98" t="s">
+        <v>228</v>
+      </c>
+      <c r="D85" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="E85" s="101"/>
+      <c r="F85" s="101"/>
+      <c r="G85" s="101"/>
+      <c r="H85" s="98"/>
+      <c r="I85" s="101"/>
     </row>
     <row r="86" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C86" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="D86" s="95" t="s">
-        <v>387</v>
-      </c>
-      <c r="E86" s="95"/>
-      <c r="F86" s="95"/>
-      <c r="G86" s="95"/>
-      <c r="H86" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="I86" s="95"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="48"/>
-      <c r="M86" s="48"/>
-      <c r="N86" s="48"/>
-      <c r="O86" s="48"/>
-      <c r="P86" s="48"/>
-      <c r="Q86" s="47"/>
-    </row>
-    <row r="87" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C87" s="96" t="s">
-        <v>221</v>
-      </c>
-      <c r="D87" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="E87" s="97"/>
-      <c r="F87" s="97"/>
-      <c r="G87" s="97"/>
-      <c r="H87" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="I87" s="97"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="48"/>
-      <c r="L87" s="48"/>
-      <c r="M87" s="48"/>
-      <c r="N87" s="48"/>
-      <c r="O87" s="48"/>
-      <c r="P87" s="48"/>
-      <c r="Q87" s="47"/>
-    </row>
-    <row r="88" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C88" s="97" t="s">
-        <v>223</v>
-      </c>
-      <c r="D88" s="97" t="s">
-        <v>372</v>
-      </c>
-      <c r="E88" s="97" t="s">
-        <v>376</v>
-      </c>
-      <c r="F88" s="97"/>
-      <c r="G88" s="97" t="s">
-        <v>374</v>
-      </c>
-      <c r="H88" s="97" t="s">
-        <v>377</v>
-      </c>
-      <c r="I88" s="97"/>
-      <c r="J88" s="163"/>
-      <c r="K88" s="163"/>
-      <c r="L88" s="163"/>
-      <c r="M88" s="163"/>
-      <c r="N88" s="163"/>
-      <c r="O88" s="163"/>
-      <c r="P88" s="163"/>
-      <c r="Q88" s="47"/>
+      <c r="C86" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="D86" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="I86" s="49"/>
+    </row>
+    <row r="87" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C87" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="D87" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="I87" s="49"/>
+    </row>
+    <row r="88" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C88" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="I88" s="51"/>
     </row>
     <row r="89" spans="3:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="C89" s="97" t="s">
-        <v>224</v>
-      </c>
-      <c r="D89" s="97" t="s">
-        <v>373</v>
-      </c>
-      <c r="E89" s="97" t="s">
-        <v>371</v>
-      </c>
-      <c r="F89" s="97"/>
-      <c r="G89" s="97" t="s">
-        <v>374</v>
-      </c>
-      <c r="H89" s="97" t="s">
-        <v>375</v>
-      </c>
-      <c r="I89" s="97"/>
-      <c r="J89" s="163"/>
-      <c r="K89" s="163"/>
-      <c r="L89" s="163"/>
-      <c r="M89" s="163"/>
-      <c r="N89" s="163"/>
-      <c r="O89" s="163"/>
-      <c r="P89" s="163"/>
-      <c r="Q89" s="47"/>
-    </row>
-    <row r="90" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C90" s="97" t="s">
-        <v>225</v>
-      </c>
-      <c r="D90" s="97" t="s">
-        <v>378</v>
-      </c>
-      <c r="E90" s="97"/>
-      <c r="F90" s="97"/>
-      <c r="G90" s="97"/>
-      <c r="H90" s="97" t="s">
-        <v>379</v>
-      </c>
-      <c r="I90" s="97"/>
-      <c r="J90" s="163"/>
-      <c r="K90" s="163"/>
-      <c r="L90" s="163"/>
-      <c r="M90" s="163"/>
-      <c r="N90" s="163"/>
-      <c r="O90" s="163"/>
-      <c r="P90" s="163"/>
-      <c r="Q90" s="47"/>
-    </row>
-    <row r="91" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C91" s="97" t="s">
-        <v>226</v>
-      </c>
-      <c r="D91" s="97" t="s">
-        <v>381</v>
-      </c>
-      <c r="E91" s="97"/>
-      <c r="F91" s="97"/>
-      <c r="G91" s="97"/>
-      <c r="H91" s="97" t="s">
-        <v>380</v>
-      </c>
-      <c r="I91" s="97"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="48"/>
-      <c r="L91" s="48"/>
-      <c r="M91" s="48"/>
-      <c r="N91" s="48"/>
-      <c r="O91" s="48"/>
-      <c r="P91" s="48"/>
-      <c r="Q91" s="47"/>
-    </row>
-    <row r="92" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C92" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="D92" s="97" t="s">
-        <v>191</v>
-      </c>
-      <c r="E92" s="97"/>
-      <c r="F92" s="97"/>
-      <c r="G92" s="97"/>
-      <c r="H92" s="97" t="s">
-        <v>348</v>
-      </c>
-      <c r="I92" s="97"/>
-    </row>
-    <row r="93" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C93" s="98" t="s">
-        <v>228</v>
-      </c>
-      <c r="D93" s="98" t="s">
-        <v>229</v>
-      </c>
-      <c r="E93" s="101"/>
-      <c r="F93" s="101"/>
-      <c r="G93" s="101"/>
-      <c r="H93" s="98"/>
-      <c r="I93" s="101"/>
-    </row>
-    <row r="94" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C94" s="49" t="s">
-        <v>367</v>
-      </c>
-      <c r="D94" s="49" t="s">
-        <v>365</v>
-      </c>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="49" t="s">
-        <v>366</v>
-      </c>
-      <c r="I94" s="49"/>
+      <c r="C89" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="D89" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="E89" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
+    </row>
+    <row r="90" spans="3:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="C90" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="D90" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="E90" s="51" t="s">
+        <v>405</v>
+      </c>
+      <c r="F90" s="51"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="I90" s="51"/>
+    </row>
+    <row r="91" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C91" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="D91" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="I91" s="53"/>
+    </row>
+    <row r="92" spans="3:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="C92" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E92" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="F92" s="110" t="s">
+        <v>406</v>
+      </c>
+      <c r="G92" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="H92" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="I92" s="53"/>
+    </row>
+    <row r="93" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C93" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="D93" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="E93" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="F93" s="53">
+        <v>5.2560000000000002</v>
+      </c>
+      <c r="G93" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="H93" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="I93" s="53"/>
+    </row>
+    <row r="94" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="C94" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="D94" s="53" t="s">
+        <v>410</v>
+      </c>
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="53" t="s">
+        <v>414</v>
+      </c>
+      <c r="I94" s="53"/>
     </row>
     <row r="95" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="C95" s="49" t="s">
-        <v>368</v>
-      </c>
-      <c r="D95" s="49" t="s">
-        <v>369</v>
-      </c>
-      <c r="E95" s="49"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49" t="s">
-        <v>370</v>
-      </c>
-      <c r="I95" s="49"/>
+      <c r="C95" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="D95" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="I95" s="53"/>
     </row>
     <row r="96" spans="3:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="C96" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="D96" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="I96" s="51"/>
-    </row>
-    <row r="97" spans="2:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C97" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="D97" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="E97" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="F97" s="51"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="51"/>
-    </row>
-    <row r="98" spans="2:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="C98" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="D98" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="E98" s="51" t="s">
-        <v>405</v>
-      </c>
-      <c r="F98" s="51"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="I98" s="51"/>
-    </row>
-    <row r="99" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C99" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="D99" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="E99" s="53"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="I99" s="53"/>
-    </row>
-    <row r="100" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C100" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="D100" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="E100" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="F100" s="110" t="s">
-        <v>406</v>
-      </c>
-      <c r="G100" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="H100" s="53" t="s">
-        <v>470</v>
-      </c>
-      <c r="I100" s="53"/>
-    </row>
-    <row r="101" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="C101" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="D101" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="E101" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="F101" s="53">
-        <v>5.2560000000000002</v>
-      </c>
-      <c r="G101" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="H101" s="53" t="s">
-        <v>408</v>
-      </c>
-      <c r="I101" s="53"/>
-    </row>
-    <row r="102" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="C102" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="D102" s="53" t="s">
-        <v>410</v>
-      </c>
-      <c r="E102" s="53"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="53"/>
-      <c r="H102" s="53" t="s">
-        <v>414</v>
-      </c>
-      <c r="I102" s="53"/>
-    </row>
-    <row r="103" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="C103" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="D103" s="53" t="s">
-        <v>409</v>
-      </c>
-      <c r="E103" s="53"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
-      <c r="H103" s="53" t="s">
-        <v>415</v>
-      </c>
-      <c r="I103" s="53"/>
-    </row>
-    <row r="104" spans="2:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C104" s="53" t="s">
+      <c r="C96" s="53" t="s">
         <v>411</v>
       </c>
-      <c r="D104" s="53" t="s">
+      <c r="D96" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="E104" s="53" t="s">
+      <c r="E96" s="53" t="s">
         <v>416</v>
       </c>
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
-      <c r="H104" s="53" t="s">
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="53" t="s">
         <v>417</v>
       </c>
-      <c r="I104" s="53"/>
-    </row>
-    <row r="105" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="C105" s="53" t="s">
+      <c r="I96" s="53"/>
+    </row>
+    <row r="97" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="C97" s="53" t="s">
         <v>412</v>
       </c>
-      <c r="D105" s="53" t="s">
+      <c r="D97" s="53" t="s">
         <v>413</v>
       </c>
-      <c r="E105" s="53"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="53"/>
-      <c r="H105" s="53" t="s">
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="53" t="s">
         <v>418</v>
       </c>
-      <c r="I105" s="53"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B108" s="104" t="s">
+      <c r="I97" s="53"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100" s="104" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="M80:M82"/>
+    <mergeCell ref="N80:N82"/>
+    <mergeCell ref="O80:O82"/>
+    <mergeCell ref="P80:P82"/>
+    <mergeCell ref="P76:P77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="N73:N75"/>
+    <mergeCell ref="O73:O75"/>
+    <mergeCell ref="P73:P75"/>
+    <mergeCell ref="P68:P70"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="L73:L75"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="N68:N70"/>
+    <mergeCell ref="O68:O70"/>
+    <mergeCell ref="M73:M75"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="D26:D29"/>
     <mergeCell ref="G26:G29"/>
     <mergeCell ref="F26:F29"/>
@@ -7088,40 +6956,6 @@
     <mergeCell ref="J27:J29"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="D14:D25"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="N81:N83"/>
-    <mergeCell ref="O81:O83"/>
-    <mergeCell ref="P81:P83"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="L81:L83"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="M76:M78"/>
-    <mergeCell ref="N76:N78"/>
-    <mergeCell ref="O76:O78"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="M88:M90"/>
-    <mergeCell ref="N88:N90"/>
-    <mergeCell ref="O88:O90"/>
-    <mergeCell ref="P88:P90"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="L88:L90"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7156,1037 +6990,1037 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="112" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" s="112" t="s">
+        <v>493</v>
+      </c>
+      <c r="D2" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="174" t="s">
+        <v>491</v>
+      </c>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="112" t="s">
+        <v>537</v>
+      </c>
+      <c r="J2" s="112" t="s">
+        <v>509</v>
+      </c>
+      <c r="K2" s="112" t="s">
+        <v>494</v>
+      </c>
+      <c r="L2" s="182" t="s">
+        <v>495</v>
+      </c>
+      <c r="M2" s="182"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112" t="s">
+        <v>527</v>
+      </c>
+      <c r="P2" s="174" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="113" t="s">
+        <v>553</v>
+      </c>
+      <c r="S2" s="113" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="174" t="s">
+        <v>497</v>
+      </c>
+      <c r="C3" s="175" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" s="178" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="179" t="s">
+        <v>511</v>
+      </c>
+      <c r="F3" s="181" t="s">
+        <v>511</v>
+      </c>
+      <c r="I3" s="195" t="s">
+        <v>511</v>
+      </c>
+      <c r="J3" s="198" t="s">
+        <v>511</v>
+      </c>
+      <c r="K3" s="201" t="s">
+        <v>511</v>
+      </c>
+      <c r="L3" s="177" t="s">
+        <v>511</v>
+      </c>
+      <c r="N3" s="177" t="s">
+        <v>511</v>
+      </c>
+      <c r="O3" s="180" t="s">
+        <v>511</v>
+      </c>
+      <c r="P3" s="219" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q3" s="116"/>
+      <c r="S3" s="218" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="181"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="177"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="219"/>
+      <c r="Q4" s="116"/>
+      <c r="S4" s="218"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="174"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="181"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="177"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="219"/>
+      <c r="Q5" s="116"/>
+      <c r="S5" s="218"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="174"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="181"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="203"/>
+      <c r="L6" s="177"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="219"/>
+      <c r="Q6" s="116"/>
+      <c r="S6" s="218"/>
+    </row>
+    <row r="7" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="174" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" s="175" t="s">
+        <v>516</v>
+      </c>
+      <c r="D7" s="178" t="s">
+        <v>513</v>
+      </c>
+      <c r="E7" s="179" t="s">
+        <v>514</v>
+      </c>
+      <c r="F7" s="189" t="s">
+        <v>562</v>
+      </c>
+      <c r="G7" s="190"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="195" t="s">
+        <v>562</v>
+      </c>
+      <c r="J7" s="210" t="s">
+        <v>515</v>
+      </c>
+      <c r="K7" s="201" t="s">
+        <v>485</v>
+      </c>
+      <c r="L7" s="183" t="s">
+        <v>563</v>
+      </c>
+      <c r="M7" s="183"/>
+      <c r="N7" s="196" t="s">
+        <v>510</v>
+      </c>
+      <c r="O7" s="180" t="s">
+        <v>528</v>
+      </c>
+      <c r="P7" s="219" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q7" s="219"/>
+      <c r="R7" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="S7" s="220" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="174"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="180"/>
+      <c r="P8" s="219"/>
+      <c r="Q8" s="219"/>
+      <c r="R8" s="237"/>
+      <c r="S8" s="220"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="174"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="197" t="s">
+        <v>479</v>
+      </c>
+      <c r="G9" s="186" t="s">
+        <v>520</v>
+      </c>
+      <c r="H9" s="181" t="s">
+        <v>482</v>
+      </c>
+      <c r="I9" s="195" t="s">
+        <v>531</v>
+      </c>
+      <c r="J9" s="211"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="177" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="177"/>
+      <c r="N9" s="196"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="219" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q9" s="219"/>
+      <c r="R9" s="230" t="s">
+        <v>561</v>
+      </c>
+      <c r="S9" s="221" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="174"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="196"/>
+      <c r="O10" s="180"/>
+      <c r="P10" s="219"/>
+      <c r="Q10" s="219"/>
+      <c r="R10" s="231"/>
+      <c r="S10" s="222"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="174" t="s">
+        <v>499</v>
+      </c>
+      <c r="C11" s="175"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="181" t="s">
+        <v>521</v>
+      </c>
+      <c r="G11" s="187"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="115" t="s">
+        <v>535</v>
+      </c>
+      <c r="J11" s="211"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="177" t="s">
+        <v>483</v>
+      </c>
+      <c r="M11" s="184" t="s">
+        <v>479</v>
+      </c>
+      <c r="N11" s="196" t="s">
+        <v>482</v>
+      </c>
+      <c r="O11" s="180"/>
+      <c r="P11" s="226" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q11" s="226"/>
+      <c r="R11" s="231"/>
+      <c r="S11" s="222"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="174"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="115" t="s">
+        <v>536</v>
+      </c>
+      <c r="J12" s="211"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="185"/>
+      <c r="N12" s="196"/>
+      <c r="O12" s="180"/>
+      <c r="P12" s="226" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q12" s="226"/>
+      <c r="R12" s="231"/>
+      <c r="S12" s="222"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="174"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="181" t="s">
+        <v>484</v>
+      </c>
+      <c r="G13" s="186" t="s">
+        <v>481</v>
+      </c>
+      <c r="H13" s="181" t="s">
+        <v>522</v>
+      </c>
+      <c r="I13" s="195" t="s">
+        <v>534</v>
+      </c>
+      <c r="J13" s="211"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="177" t="s">
+        <v>481</v>
+      </c>
+      <c r="M13" s="177" t="s">
+        <v>477</v>
+      </c>
+      <c r="N13" s="196"/>
+      <c r="O13" s="180"/>
+      <c r="P13" s="226" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q13" s="226"/>
+      <c r="R13" s="231"/>
+      <c r="S13" s="222"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="174"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="196"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="219" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q14" s="219"/>
+      <c r="R14" s="231"/>
+      <c r="S14" s="222"/>
+    </row>
+    <row r="15" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="174" t="s">
         <v>500</v>
       </c>
-      <c r="C2" s="113" t="s">
-        <v>497</v>
-      </c>
-      <c r="D2" s="113" t="s">
-        <v>496</v>
-      </c>
-      <c r="E2" s="113" t="s">
-        <v>256</v>
-      </c>
-      <c r="F2" s="187" t="s">
-        <v>495</v>
-      </c>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="113" t="s">
+      <c r="C15" s="175"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="208" t="s">
+        <v>542</v>
+      </c>
+      <c r="J15" s="211"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="207" t="s">
+        <v>517</v>
+      </c>
+      <c r="O15" s="180"/>
+      <c r="P15" s="219"/>
+      <c r="Q15" s="219"/>
+      <c r="R15" s="231"/>
+      <c r="S15" s="222"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="174"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="211"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="207"/>
+      <c r="O16" s="180"/>
+      <c r="P16" s="219" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q16" s="219"/>
+      <c r="R16" s="231"/>
+      <c r="S16" s="222"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B17" s="174"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="181" t="s">
+        <v>480</v>
+      </c>
+      <c r="G17" s="181" t="s">
+        <v>478</v>
+      </c>
+      <c r="H17" s="181"/>
+      <c r="I17" s="208" t="s">
+        <v>532</v>
+      </c>
+      <c r="J17" s="211"/>
+      <c r="K17" s="202"/>
+      <c r="L17" s="184" t="s">
+        <v>480</v>
+      </c>
+      <c r="M17" s="177" t="s">
+        <v>484</v>
+      </c>
+      <c r="N17" s="207"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="219"/>
+      <c r="Q17" s="219"/>
+      <c r="R17" s="231"/>
+      <c r="S17" s="222"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B18" s="174"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="211"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="185"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="207"/>
+      <c r="O18" s="180"/>
+      <c r="P18" s="219"/>
+      <c r="Q18" s="219"/>
+      <c r="R18" s="231"/>
+      <c r="S18" s="222"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B19" s="174" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" s="175"/>
+      <c r="D19" s="178" t="s">
+        <v>518</v>
+      </c>
+      <c r="F19" s="181" t="s">
+        <v>523</v>
+      </c>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="208" t="s">
+        <v>533</v>
+      </c>
+      <c r="J19" s="211"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="184" t="s">
+        <v>478</v>
+      </c>
+      <c r="M19" s="177"/>
+      <c r="N19" s="207"/>
+      <c r="O19" s="180"/>
+      <c r="P19" s="219" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q19" s="219"/>
+      <c r="R19" s="231"/>
+      <c r="S19" s="222"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="174"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="178"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="211"/>
+      <c r="K20" s="202"/>
+      <c r="L20" s="185"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="207"/>
+      <c r="O20" s="180"/>
+      <c r="P20" s="219"/>
+      <c r="Q20" s="219"/>
+      <c r="R20" s="231"/>
+      <c r="S20" s="222"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B21" s="174"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="178"/>
+      <c r="F21" s="181" t="s">
+        <v>486</v>
+      </c>
+      <c r="G21" s="206" t="s">
+        <v>489</v>
+      </c>
+      <c r="H21" s="181"/>
+      <c r="I21" s="195" t="s">
         <v>541</v>
       </c>
-      <c r="J2" s="113" t="s">
-        <v>513</v>
-      </c>
-      <c r="K2" s="113" t="s">
-        <v>498</v>
-      </c>
-      <c r="L2" s="219" t="s">
-        <v>499</v>
-      </c>
-      <c r="M2" s="219"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113" t="s">
-        <v>531</v>
-      </c>
-      <c r="P2" s="187" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="114" t="s">
-        <v>557</v>
-      </c>
-      <c r="S2" s="114" t="s">
+      <c r="J21" s="211"/>
+      <c r="K21" s="204"/>
+      <c r="L21" s="177" t="s">
+        <v>486</v>
+      </c>
+      <c r="M21" s="184" t="s">
+        <v>523</v>
+      </c>
+      <c r="N21" s="207"/>
+      <c r="O21" s="180"/>
+      <c r="P21" s="226" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q21" s="226"/>
+      <c r="R21" s="231"/>
+      <c r="S21" s="222"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="174"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="178"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="211"/>
+      <c r="K22" s="205"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="214"/>
+      <c r="N22" s="207"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="226"/>
+      <c r="Q22" s="226"/>
+      <c r="R22" s="231"/>
+      <c r="S22" s="222"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="174" t="s">
+        <v>502</v>
+      </c>
+      <c r="C23" s="175"/>
+      <c r="D23" s="178"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="195" t="s">
+        <v>540</v>
+      </c>
+      <c r="J23" s="211"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="214"/>
+      <c r="N23" s="207"/>
+      <c r="O23" s="180"/>
+      <c r="P23" s="226" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q23" s="226"/>
+      <c r="R23" s="231"/>
+      <c r="S23" s="222"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="211"/>
+      <c r="L24" s="177"/>
+      <c r="M24" s="185"/>
+      <c r="N24" s="215" t="s">
+        <v>487</v>
+      </c>
+      <c r="O24" s="180"/>
+      <c r="P24" s="226"/>
+      <c r="Q24" s="226"/>
+      <c r="R24" s="231"/>
+      <c r="S24" s="222"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B25" s="174"/>
+      <c r="C25" s="175"/>
+      <c r="F25" s="186" t="s">
+        <v>487</v>
+      </c>
+      <c r="G25" s="186" t="s">
+        <v>490</v>
+      </c>
+      <c r="H25" s="181" t="s">
+        <v>488</v>
+      </c>
+      <c r="I25" s="195" t="s">
+        <v>538</v>
+      </c>
+      <c r="J25" s="211"/>
+      <c r="L25" s="184" t="s">
+        <v>488</v>
+      </c>
+      <c r="M25" s="184" t="s">
+        <v>489</v>
+      </c>
+      <c r="N25" s="216"/>
+      <c r="O25" s="180"/>
+      <c r="P25" s="226" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q25" s="226"/>
+      <c r="R25" s="231"/>
+      <c r="S25" s="222"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B26" s="174"/>
+      <c r="C26" s="175"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="211"/>
+      <c r="L26" s="185"/>
+      <c r="M26" s="214"/>
+      <c r="N26" s="216"/>
+      <c r="O26" s="180"/>
+      <c r="P26" s="226"/>
+      <c r="Q26" s="226"/>
+      <c r="R26" s="231"/>
+      <c r="S26" s="222"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B27" s="174" t="s">
+        <v>503</v>
+      </c>
+      <c r="C27" s="175"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="206" t="s">
+        <v>524</v>
+      </c>
+      <c r="I27" s="114" t="s">
+        <v>545</v>
+      </c>
+      <c r="J27" s="211"/>
+      <c r="L27" s="184" t="s">
+        <v>524</v>
+      </c>
+      <c r="M27" s="214"/>
+      <c r="N27" s="216"/>
+      <c r="O27" s="180"/>
+      <c r="P27" s="226" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="187" t="s">
-        <v>501</v>
-      </c>
-      <c r="C3" s="237" t="s">
-        <v>515</v>
-      </c>
-      <c r="D3" s="218" t="s">
-        <v>496</v>
-      </c>
-      <c r="E3" s="226" t="s">
-        <v>515</v>
-      </c>
-      <c r="F3" s="205" t="s">
-        <v>515</v>
-      </c>
-      <c r="I3" s="195" t="s">
-        <v>515</v>
-      </c>
-      <c r="J3" s="229" t="s">
-        <v>515</v>
-      </c>
-      <c r="K3" s="232" t="s">
-        <v>515</v>
-      </c>
-      <c r="L3" s="199" t="s">
-        <v>515</v>
-      </c>
-      <c r="N3" s="199" t="s">
-        <v>515</v>
-      </c>
-      <c r="O3" s="211" t="s">
-        <v>515</v>
-      </c>
-      <c r="P3" s="189" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q3" s="117"/>
-      <c r="S3" s="188" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="187"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="205"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="230"/>
-      <c r="K4" s="233"/>
-      <c r="L4" s="199"/>
-      <c r="N4" s="199"/>
-      <c r="O4" s="211"/>
-      <c r="P4" s="189"/>
-      <c r="Q4" s="117"/>
-      <c r="S4" s="188"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="187"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="226"/>
-      <c r="F5" s="205"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="230"/>
-      <c r="K5" s="233"/>
-      <c r="L5" s="199"/>
-      <c r="N5" s="199"/>
-      <c r="O5" s="211"/>
-      <c r="P5" s="189"/>
-      <c r="Q5" s="117"/>
-      <c r="S5" s="188"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="187"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="205"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="199"/>
-      <c r="N6" s="199"/>
-      <c r="O6" s="211"/>
-      <c r="P6" s="189"/>
-      <c r="Q6" s="117"/>
-      <c r="S6" s="188"/>
-    </row>
-    <row r="7" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="187" t="s">
-        <v>502</v>
-      </c>
-      <c r="C7" s="237" t="s">
-        <v>520</v>
-      </c>
-      <c r="D7" s="218" t="s">
-        <v>517</v>
-      </c>
-      <c r="E7" s="226" t="s">
-        <v>518</v>
-      </c>
-      <c r="F7" s="220" t="s">
-        <v>566</v>
-      </c>
-      <c r="G7" s="221"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="195" t="s">
-        <v>566</v>
-      </c>
-      <c r="J7" s="207" t="s">
-        <v>519</v>
-      </c>
-      <c r="K7" s="232" t="s">
-        <v>489</v>
-      </c>
-      <c r="L7" s="206" t="s">
-        <v>567</v>
-      </c>
-      <c r="M7" s="206"/>
-      <c r="N7" s="227" t="s">
-        <v>514</v>
-      </c>
-      <c r="O7" s="211" t="s">
-        <v>532</v>
-      </c>
-      <c r="P7" s="189" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q7" s="189"/>
-      <c r="R7" s="186" t="s">
-        <v>566</v>
-      </c>
-      <c r="S7" s="190" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="187"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="218"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="208"/>
-      <c r="K8" s="233"/>
-      <c r="L8" s="206"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="227"/>
-      <c r="O8" s="211"/>
-      <c r="P8" s="189"/>
-      <c r="Q8" s="189"/>
-      <c r="R8" s="186"/>
-      <c r="S8" s="190"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="187"/>
-      <c r="C9" s="237"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="228" t="s">
-        <v>483</v>
-      </c>
-      <c r="G9" s="202" t="s">
-        <v>524</v>
-      </c>
-      <c r="H9" s="205" t="s">
-        <v>486</v>
-      </c>
-      <c r="I9" s="195" t="s">
-        <v>535</v>
-      </c>
-      <c r="J9" s="208"/>
-      <c r="K9" s="233"/>
-      <c r="L9" s="199" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="199"/>
-      <c r="N9" s="227"/>
-      <c r="O9" s="211"/>
-      <c r="P9" s="189" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q9" s="189"/>
-      <c r="R9" s="178" t="s">
-        <v>565</v>
-      </c>
-      <c r="S9" s="191" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="187"/>
-      <c r="C10" s="237"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="228"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="208"/>
-      <c r="K10" s="233"/>
-      <c r="L10" s="199"/>
-      <c r="M10" s="199"/>
-      <c r="N10" s="227"/>
-      <c r="O10" s="211"/>
-      <c r="P10" s="189"/>
-      <c r="Q10" s="189"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="192"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="187" t="s">
-        <v>503</v>
-      </c>
-      <c r="C11" s="237"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="205" t="s">
+      <c r="Q27" s="226"/>
+      <c r="R27" s="231"/>
+      <c r="S27" s="222"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B28" s="174"/>
+      <c r="C28" s="175"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="188"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="114" t="s">
+        <v>543</v>
+      </c>
+      <c r="J28" s="211"/>
+      <c r="L28" s="185"/>
+      <c r="M28" s="185"/>
+      <c r="N28" s="216"/>
+      <c r="O28" s="180"/>
+      <c r="P28" s="226"/>
+      <c r="Q28" s="226"/>
+      <c r="R28" s="231"/>
+      <c r="S28" s="222"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B29" s="174"/>
+      <c r="C29" s="175"/>
+      <c r="F29" s="187"/>
+      <c r="G29" s="181" t="s">
         <v>525</v>
       </c>
-      <c r="G11" s="203"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="116" t="s">
+      <c r="I29" s="114" t="s">
+        <v>544</v>
+      </c>
+      <c r="J29" s="211"/>
+      <c r="L29" s="177" t="s">
+        <v>525</v>
+      </c>
+      <c r="M29" s="184" t="s">
+        <v>490</v>
+      </c>
+      <c r="N29" s="216"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="226" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q29" s="226"/>
+      <c r="R29" s="231"/>
+      <c r="S29" s="222"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B30" s="174"/>
+      <c r="C30" s="175"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="181"/>
+      <c r="I30" s="208" t="s">
+        <v>538</v>
+      </c>
+      <c r="J30" s="211"/>
+      <c r="L30" s="177"/>
+      <c r="M30" s="214"/>
+      <c r="N30" s="216"/>
+      <c r="O30" s="180"/>
+      <c r="P30" s="226"/>
+      <c r="Q30" s="226"/>
+      <c r="R30" s="231"/>
+      <c r="S30" s="222"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B31" s="174" t="s">
+        <v>504</v>
+      </c>
+      <c r="C31" s="175"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="186" t="s">
+        <v>526</v>
+      </c>
+      <c r="I31" s="209"/>
+      <c r="J31" s="211"/>
+      <c r="L31" s="184" t="s">
+        <v>526</v>
+      </c>
+      <c r="M31" s="214"/>
+      <c r="N31" s="216"/>
+      <c r="O31" s="180"/>
+      <c r="P31" s="226" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q31" s="226"/>
+      <c r="R31" s="231"/>
+      <c r="S31" s="222"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B32" s="174"/>
+      <c r="C32" s="175"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="I32" s="195" t="s">
         <v>539</v>
       </c>
-      <c r="J11" s="208"/>
-      <c r="K11" s="233"/>
-      <c r="L11" s="199" t="s">
-        <v>487</v>
-      </c>
-      <c r="M11" s="196" t="s">
-        <v>483</v>
-      </c>
-      <c r="N11" s="227" t="s">
-        <v>486</v>
-      </c>
-      <c r="O11" s="211"/>
-      <c r="P11" s="184" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q11" s="184"/>
-      <c r="R11" s="179"/>
-      <c r="S11" s="192"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="187"/>
-      <c r="C12" s="237"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="226"/>
-      <c r="F12" s="205"/>
-      <c r="G12" s="204"/>
-      <c r="H12" s="205"/>
-      <c r="I12" s="116" t="s">
-        <v>540</v>
-      </c>
-      <c r="J12" s="208"/>
-      <c r="K12" s="233"/>
-      <c r="L12" s="199"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="227"/>
-      <c r="O12" s="211"/>
-      <c r="P12" s="184" t="s">
+      <c r="J32" s="211"/>
+      <c r="L32" s="214"/>
+      <c r="M32" s="214"/>
+      <c r="N32" s="216"/>
+      <c r="O32" s="180"/>
+      <c r="P32" s="226" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q32" s="226"/>
+      <c r="R32" s="231"/>
+      <c r="S32" s="222"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B33" s="174"/>
+      <c r="C33" s="175"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="212"/>
+      <c r="L33" s="185"/>
+      <c r="M33" s="214"/>
+      <c r="N33" s="217"/>
+      <c r="O33" s="180"/>
+      <c r="P33" s="226" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q33" s="226"/>
+      <c r="R33" s="231"/>
+      <c r="S33" s="222"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B34" s="174"/>
+      <c r="C34" s="176"/>
+      <c r="F34" s="186" t="s">
+        <v>529</v>
+      </c>
+      <c r="I34" s="224" t="s">
+        <v>546</v>
+      </c>
+      <c r="J34" s="213" t="s">
+        <v>530</v>
+      </c>
+      <c r="M34" s="177" t="s">
+        <v>529</v>
+      </c>
+      <c r="N34" s="183" t="s">
+        <v>530</v>
+      </c>
+      <c r="O34" s="180"/>
+      <c r="P34" s="226"/>
+      <c r="Q34" s="226"/>
+      <c r="R34" s="231"/>
+      <c r="S34" s="222"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B35" s="174" t="s">
+        <v>505</v>
+      </c>
+      <c r="C35" s="176"/>
+      <c r="F35" s="187"/>
+      <c r="I35" s="224"/>
+      <c r="J35" s="213"/>
+      <c r="M35" s="177"/>
+      <c r="N35" s="183"/>
+      <c r="O35" s="180"/>
+      <c r="P35" s="226" t="s">
         <v>539</v>
       </c>
-      <c r="Q12" s="184"/>
-      <c r="R12" s="179"/>
-      <c r="S12" s="192"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="187"/>
-      <c r="C13" s="237"/>
-      <c r="D13" s="218"/>
-      <c r="E13" s="226"/>
-      <c r="F13" s="205" t="s">
-        <v>488</v>
-      </c>
-      <c r="G13" s="202" t="s">
-        <v>485</v>
-      </c>
-      <c r="H13" s="205" t="s">
-        <v>526</v>
-      </c>
-      <c r="I13" s="195" t="s">
-        <v>538</v>
-      </c>
-      <c r="J13" s="208"/>
-      <c r="K13" s="233"/>
-      <c r="L13" s="199" t="s">
-        <v>485</v>
-      </c>
-      <c r="M13" s="199" t="s">
-        <v>481</v>
-      </c>
-      <c r="N13" s="227"/>
-      <c r="O13" s="211"/>
-      <c r="P13" s="184" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q13" s="184"/>
-      <c r="R13" s="179"/>
-      <c r="S13" s="192"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="187"/>
-      <c r="C14" s="237"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="226"/>
-      <c r="F14" s="205"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="205"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="208"/>
-      <c r="K14" s="233"/>
-      <c r="L14" s="199"/>
-      <c r="M14" s="199"/>
-      <c r="N14" s="227"/>
-      <c r="O14" s="211"/>
-      <c r="P14" s="189" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q14" s="189"/>
-      <c r="R14" s="179"/>
-      <c r="S14" s="192"/>
-    </row>
-    <row r="15" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="187" t="s">
-        <v>504</v>
-      </c>
-      <c r="C15" s="237"/>
-      <c r="D15" s="218"/>
-      <c r="E15" s="226"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="205"/>
-      <c r="I15" s="200" t="s">
-        <v>546</v>
-      </c>
-      <c r="J15" s="208"/>
-      <c r="K15" s="233"/>
-      <c r="L15" s="199"/>
-      <c r="M15" s="199"/>
-      <c r="N15" s="217" t="s">
-        <v>521</v>
-      </c>
-      <c r="O15" s="211"/>
-      <c r="P15" s="189"/>
-      <c r="Q15" s="189"/>
-      <c r="R15" s="179"/>
-      <c r="S15" s="192"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="187"/>
-      <c r="C16" s="237"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="233"/>
-      <c r="L16" s="199"/>
-      <c r="M16" s="199"/>
-      <c r="N16" s="217"/>
-      <c r="O16" s="211"/>
-      <c r="P16" s="189" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q16" s="189"/>
-      <c r="R16" s="179"/>
-      <c r="S16" s="192"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="187"/>
-      <c r="C17" s="237"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="226"/>
-      <c r="F17" s="205" t="s">
-        <v>484</v>
-      </c>
-      <c r="G17" s="205" t="s">
-        <v>482</v>
-      </c>
-      <c r="H17" s="205"/>
-      <c r="I17" s="200" t="s">
-        <v>536</v>
-      </c>
-      <c r="J17" s="208"/>
-      <c r="K17" s="233"/>
-      <c r="L17" s="196" t="s">
-        <v>484</v>
-      </c>
-      <c r="M17" s="199" t="s">
-        <v>488</v>
-      </c>
-      <c r="N17" s="217"/>
-      <c r="O17" s="211"/>
-      <c r="P17" s="189"/>
-      <c r="Q17" s="189"/>
-      <c r="R17" s="179"/>
-      <c r="S17" s="192"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="187"/>
-      <c r="C18" s="237"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="226"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="233"/>
-      <c r="L18" s="198"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="217"/>
-      <c r="O18" s="211"/>
-      <c r="P18" s="189"/>
-      <c r="Q18" s="189"/>
-      <c r="R18" s="179"/>
-      <c r="S18" s="192"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="187" t="s">
-        <v>505</v>
-      </c>
-      <c r="C19" s="237"/>
-      <c r="D19" s="218" t="s">
-        <v>522</v>
-      </c>
-      <c r="F19" s="205" t="s">
-        <v>527</v>
-      </c>
-      <c r="G19" s="205"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="200" t="s">
-        <v>537</v>
-      </c>
-      <c r="J19" s="208"/>
-      <c r="K19" s="233"/>
-      <c r="L19" s="196" t="s">
-        <v>482</v>
-      </c>
-      <c r="M19" s="199"/>
-      <c r="N19" s="217"/>
-      <c r="O19" s="211"/>
-      <c r="P19" s="189" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q19" s="189"/>
-      <c r="R19" s="179"/>
-      <c r="S19" s="192"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="187"/>
-      <c r="C20" s="237"/>
-      <c r="D20" s="218"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="205"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="208"/>
-      <c r="K20" s="233"/>
-      <c r="L20" s="198"/>
-      <c r="M20" s="199"/>
-      <c r="N20" s="217"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="189"/>
-      <c r="Q20" s="189"/>
-      <c r="R20" s="179"/>
-      <c r="S20" s="192"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B21" s="187"/>
-      <c r="C21" s="237"/>
-      <c r="D21" s="218"/>
-      <c r="F21" s="205" t="s">
-        <v>490</v>
-      </c>
-      <c r="G21" s="216" t="s">
-        <v>493</v>
-      </c>
-      <c r="H21" s="205"/>
-      <c r="I21" s="195" t="s">
-        <v>545</v>
-      </c>
-      <c r="J21" s="208"/>
-      <c r="K21" s="235"/>
-      <c r="L21" s="199" t="s">
-        <v>490</v>
-      </c>
-      <c r="M21" s="196" t="s">
-        <v>527</v>
-      </c>
-      <c r="N21" s="217"/>
-      <c r="O21" s="211"/>
-      <c r="P21" s="184" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q21" s="184"/>
-      <c r="R21" s="179"/>
-      <c r="S21" s="192"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="187"/>
-      <c r="C22" s="237"/>
-      <c r="D22" s="218"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="216"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="208"/>
-      <c r="K22" s="236"/>
-      <c r="L22" s="199"/>
-      <c r="M22" s="197"/>
-      <c r="N22" s="217"/>
-      <c r="O22" s="211"/>
-      <c r="P22" s="184"/>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="179"/>
-      <c r="S22" s="192"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="187" t="s">
+      <c r="Q35" s="226"/>
+      <c r="R35" s="231"/>
+      <c r="S35" s="222"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B36" s="174"/>
+      <c r="C36" s="176"/>
+      <c r="F36" s="187"/>
+      <c r="I36" s="224"/>
+      <c r="J36" s="213"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="183"/>
+      <c r="O36" s="180"/>
+      <c r="P36" s="226"/>
+      <c r="Q36" s="226"/>
+      <c r="R36" s="232"/>
+      <c r="S36" s="223"/>
+    </row>
+    <row r="37" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="174"/>
+      <c r="C37" s="176"/>
+      <c r="F37" s="187"/>
+      <c r="I37" s="224"/>
+      <c r="J37" s="213"/>
+      <c r="M37" s="177"/>
+      <c r="N37" s="183"/>
+      <c r="O37" s="225"/>
+      <c r="P37" s="236" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q37" s="236"/>
+      <c r="R37" s="233" t="s">
+        <v>530</v>
+      </c>
+      <c r="S37" s="227" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B38" s="174"/>
+      <c r="C38" s="176"/>
+      <c r="F38" s="188"/>
+      <c r="I38" s="224"/>
+      <c r="J38" s="213"/>
+      <c r="M38" s="177"/>
+      <c r="N38" s="183"/>
+      <c r="O38" s="225"/>
+      <c r="P38" s="236"/>
+      <c r="Q38" s="236"/>
+      <c r="R38" s="234"/>
+      <c r="S38" s="228"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B39" s="174" t="s">
         <v>506</v>
       </c>
-      <c r="C23" s="237"/>
-      <c r="D23" s="218"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="216"/>
-      <c r="H23" s="205"/>
-      <c r="I23" s="195" t="s">
-        <v>544</v>
-      </c>
-      <c r="J23" s="208"/>
-      <c r="L23" s="199"/>
-      <c r="M23" s="197"/>
-      <c r="N23" s="217"/>
-      <c r="O23" s="211"/>
-      <c r="P23" s="184" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q23" s="184"/>
-      <c r="R23" s="179"/>
-      <c r="S23" s="192"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="187"/>
-      <c r="C24" s="237"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="208"/>
-      <c r="L24" s="199"/>
-      <c r="M24" s="198"/>
-      <c r="N24" s="213" t="s">
-        <v>491</v>
-      </c>
-      <c r="O24" s="211"/>
-      <c r="P24" s="184"/>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="179"/>
-      <c r="S24" s="192"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="187"/>
-      <c r="C25" s="237"/>
-      <c r="F25" s="202" t="s">
-        <v>491</v>
-      </c>
-      <c r="G25" s="202" t="s">
-        <v>494</v>
-      </c>
-      <c r="H25" s="205" t="s">
-        <v>492</v>
-      </c>
-      <c r="I25" s="195" t="s">
-        <v>542</v>
-      </c>
-      <c r="J25" s="208"/>
-      <c r="L25" s="196" t="s">
-        <v>492</v>
-      </c>
-      <c r="M25" s="196" t="s">
-        <v>493</v>
-      </c>
-      <c r="N25" s="214"/>
-      <c r="O25" s="211"/>
-      <c r="P25" s="184" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="179"/>
-      <c r="S25" s="192"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="187"/>
-      <c r="C26" s="237"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="208"/>
-      <c r="L26" s="198"/>
-      <c r="M26" s="197"/>
-      <c r="N26" s="214"/>
-      <c r="O26" s="211"/>
-      <c r="P26" s="184"/>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="179"/>
-      <c r="S26" s="192"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="187" t="s">
+      <c r="C39" s="176"/>
+      <c r="I39" s="224"/>
+      <c r="J39" s="213"/>
+      <c r="N39" s="183"/>
+      <c r="P39" s="236"/>
+      <c r="Q39" s="236"/>
+      <c r="R39" s="234"/>
+      <c r="S39" s="228"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B40" s="174"/>
+      <c r="C40" s="176"/>
+      <c r="I40" s="224"/>
+      <c r="J40" s="213"/>
+      <c r="N40" s="183"/>
+      <c r="P40" s="236"/>
+      <c r="Q40" s="236"/>
+      <c r="R40" s="234"/>
+      <c r="S40" s="228"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B41" s="174"/>
+      <c r="I41" s="224"/>
+      <c r="J41" s="213"/>
+      <c r="N41" s="183"/>
+      <c r="P41" s="236"/>
+      <c r="Q41" s="236"/>
+      <c r="R41" s="234"/>
+      <c r="S41" s="228"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B42" s="174"/>
+      <c r="I42" s="224"/>
+      <c r="J42" s="213"/>
+      <c r="N42" s="183"/>
+      <c r="P42" s="236"/>
+      <c r="Q42" s="236"/>
+      <c r="R42" s="234"/>
+      <c r="S42" s="228"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B43" s="174" t="s">
         <v>507</v>
       </c>
-      <c r="C27" s="237"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="203"/>
-      <c r="H27" s="216" t="s">
-        <v>528</v>
-      </c>
-      <c r="I27" s="115" t="s">
-        <v>549</v>
-      </c>
-      <c r="J27" s="208"/>
-      <c r="L27" s="196" t="s">
-        <v>528</v>
-      </c>
-      <c r="M27" s="197"/>
-      <c r="N27" s="214"/>
-      <c r="O27" s="211"/>
-      <c r="P27" s="184" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="179"/>
-      <c r="S27" s="192"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="187"/>
-      <c r="C28" s="237"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="216"/>
-      <c r="I28" s="115" t="s">
-        <v>547</v>
-      </c>
-      <c r="J28" s="208"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="198"/>
-      <c r="N28" s="214"/>
-      <c r="O28" s="211"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="179"/>
-      <c r="S28" s="192"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="187"/>
-      <c r="C29" s="237"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="205" t="s">
-        <v>529</v>
-      </c>
-      <c r="I29" s="115" t="s">
-        <v>548</v>
-      </c>
-      <c r="J29" s="208"/>
-      <c r="L29" s="199" t="s">
-        <v>529</v>
-      </c>
-      <c r="M29" s="196" t="s">
-        <v>494</v>
-      </c>
-      <c r="N29" s="214"/>
-      <c r="O29" s="211"/>
-      <c r="P29" s="184" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q29" s="184"/>
-      <c r="R29" s="179"/>
-      <c r="S29" s="192"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="187"/>
-      <c r="C30" s="237"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="205"/>
-      <c r="I30" s="200" t="s">
-        <v>542</v>
-      </c>
-      <c r="J30" s="208"/>
-      <c r="L30" s="199"/>
-      <c r="M30" s="197"/>
-      <c r="N30" s="214"/>
-      <c r="O30" s="211"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="179"/>
-      <c r="S30" s="192"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="187" t="s">
+      <c r="I43" s="224"/>
+      <c r="J43" s="213"/>
+      <c r="N43" s="183"/>
+      <c r="P43" s="236"/>
+      <c r="Q43" s="236"/>
+      <c r="R43" s="234"/>
+      <c r="S43" s="228"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B44" s="174"/>
+      <c r="I44" s="224"/>
+      <c r="J44" s="213"/>
+      <c r="N44" s="183"/>
+      <c r="P44" s="236"/>
+      <c r="Q44" s="236"/>
+      <c r="R44" s="234"/>
+      <c r="S44" s="228"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B45" s="174"/>
+      <c r="I45" s="224"/>
+      <c r="J45" s="213"/>
+      <c r="N45" s="183"/>
+      <c r="P45" s="236"/>
+      <c r="Q45" s="236"/>
+      <c r="R45" s="234"/>
+      <c r="S45" s="228"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B46" s="174"/>
+      <c r="I46" s="224"/>
+      <c r="J46" s="213"/>
+      <c r="N46" s="183"/>
+      <c r="P46" s="236"/>
+      <c r="Q46" s="236"/>
+      <c r="R46" s="234"/>
+      <c r="S46" s="228"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B47" s="174" t="s">
         <v>508</v>
       </c>
-      <c r="C31" s="237"/>
-      <c r="F31" s="203"/>
-      <c r="G31" s="202" t="s">
-        <v>530</v>
-      </c>
-      <c r="I31" s="201"/>
-      <c r="J31" s="208"/>
-      <c r="L31" s="196" t="s">
-        <v>530</v>
-      </c>
-      <c r="M31" s="197"/>
-      <c r="N31" s="214"/>
-      <c r="O31" s="211"/>
-      <c r="P31" s="184" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="179"/>
-      <c r="S31" s="192"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="187"/>
-      <c r="C32" s="237"/>
-      <c r="F32" s="203"/>
-      <c r="G32" s="203"/>
-      <c r="I32" s="195" t="s">
-        <v>543</v>
-      </c>
-      <c r="J32" s="208"/>
-      <c r="L32" s="197"/>
-      <c r="M32" s="197"/>
-      <c r="N32" s="214"/>
-      <c r="O32" s="211"/>
-      <c r="P32" s="184" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q32" s="184"/>
-      <c r="R32" s="179"/>
-      <c r="S32" s="192"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="187"/>
-      <c r="C33" s="237"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
-      <c r="I33" s="195"/>
-      <c r="J33" s="209"/>
-      <c r="L33" s="198"/>
-      <c r="M33" s="197"/>
-      <c r="N33" s="215"/>
-      <c r="O33" s="211"/>
-      <c r="P33" s="184" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q33" s="184"/>
-      <c r="R33" s="179"/>
-      <c r="S33" s="192"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B34" s="187"/>
-      <c r="C34" s="238"/>
-      <c r="F34" s="202" t="s">
-        <v>533</v>
-      </c>
-      <c r="I34" s="194" t="s">
-        <v>550</v>
-      </c>
-      <c r="J34" s="210" t="s">
-        <v>534</v>
-      </c>
-      <c r="M34" s="199" t="s">
-        <v>533</v>
-      </c>
-      <c r="N34" s="206" t="s">
-        <v>534</v>
-      </c>
-      <c r="O34" s="211"/>
-      <c r="P34" s="184"/>
-      <c r="Q34" s="184"/>
-      <c r="R34" s="179"/>
-      <c r="S34" s="192"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="187" t="s">
-        <v>509</v>
-      </c>
-      <c r="C35" s="238"/>
-      <c r="F35" s="203"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="210"/>
-      <c r="M35" s="199"/>
-      <c r="N35" s="206"/>
-      <c r="O35" s="211"/>
-      <c r="P35" s="184" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q35" s="184"/>
-      <c r="R35" s="179"/>
-      <c r="S35" s="192"/>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B36" s="187"/>
-      <c r="C36" s="238"/>
-      <c r="F36" s="203"/>
-      <c r="I36" s="194"/>
-      <c r="J36" s="210"/>
-      <c r="M36" s="199"/>
-      <c r="N36" s="206"/>
-      <c r="O36" s="211"/>
-      <c r="P36" s="184"/>
-      <c r="Q36" s="184"/>
-      <c r="R36" s="180"/>
-      <c r="S36" s="193"/>
-    </row>
-    <row r="37" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="187"/>
-      <c r="C37" s="238"/>
-      <c r="F37" s="203"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="210"/>
-      <c r="M37" s="199"/>
-      <c r="N37" s="206"/>
-      <c r="O37" s="212"/>
-      <c r="P37" s="185" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="181" t="s">
-        <v>534</v>
-      </c>
-      <c r="S37" s="175" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B38" s="187"/>
-      <c r="C38" s="238"/>
-      <c r="F38" s="204"/>
-      <c r="I38" s="194"/>
-      <c r="J38" s="210"/>
-      <c r="M38" s="199"/>
-      <c r="N38" s="206"/>
-      <c r="O38" s="212"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="182"/>
-      <c r="S38" s="176"/>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B39" s="187" t="s">
-        <v>510</v>
-      </c>
-      <c r="C39" s="238"/>
-      <c r="I39" s="194"/>
-      <c r="J39" s="210"/>
-      <c r="N39" s="206"/>
-      <c r="P39" s="185"/>
-      <c r="Q39" s="185"/>
-      <c r="R39" s="182"/>
-      <c r="S39" s="176"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B40" s="187"/>
-      <c r="C40" s="238"/>
-      <c r="I40" s="194"/>
-      <c r="J40" s="210"/>
-      <c r="N40" s="206"/>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="182"/>
-      <c r="S40" s="176"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B41" s="187"/>
-      <c r="I41" s="194"/>
-      <c r="J41" s="210"/>
-      <c r="N41" s="206"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="182"/>
-      <c r="S41" s="176"/>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B42" s="187"/>
-      <c r="I42" s="194"/>
-      <c r="J42" s="210"/>
-      <c r="N42" s="206"/>
-      <c r="P42" s="185"/>
-      <c r="Q42" s="185"/>
-      <c r="R42" s="182"/>
-      <c r="S42" s="176"/>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B43" s="187" t="s">
-        <v>511</v>
-      </c>
-      <c r="I43" s="194"/>
-      <c r="J43" s="210"/>
-      <c r="N43" s="206"/>
-      <c r="P43" s="185"/>
-      <c r="Q43" s="185"/>
-      <c r="R43" s="182"/>
-      <c r="S43" s="176"/>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B44" s="187"/>
-      <c r="I44" s="194"/>
-      <c r="J44" s="210"/>
-      <c r="N44" s="206"/>
-      <c r="P44" s="185"/>
-      <c r="Q44" s="185"/>
-      <c r="R44" s="182"/>
-      <c r="S44" s="176"/>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B45" s="187"/>
-      <c r="I45" s="194"/>
-      <c r="J45" s="210"/>
-      <c r="N45" s="206"/>
-      <c r="P45" s="185"/>
-      <c r="Q45" s="185"/>
-      <c r="R45" s="182"/>
-      <c r="S45" s="176"/>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B46" s="187"/>
-      <c r="I46" s="194"/>
-      <c r="J46" s="210"/>
-      <c r="N46" s="206"/>
-      <c r="P46" s="185"/>
-      <c r="Q46" s="185"/>
-      <c r="R46" s="182"/>
-      <c r="S46" s="176"/>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B47" s="187" t="s">
-        <v>512</v>
-      </c>
-      <c r="I47" s="194"/>
-      <c r="J47" s="210"/>
-      <c r="N47" s="206"/>
-      <c r="P47" s="185"/>
-      <c r="Q47" s="185"/>
-      <c r="R47" s="182"/>
-      <c r="S47" s="176"/>
+      <c r="I47" s="224"/>
+      <c r="J47" s="213"/>
+      <c r="N47" s="183"/>
+      <c r="P47" s="236"/>
+      <c r="Q47" s="236"/>
+      <c r="R47" s="234"/>
+      <c r="S47" s="228"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B48" s="187"/>
-      <c r="I48" s="194"/>
-      <c r="J48" s="210"/>
-      <c r="N48" s="206"/>
-      <c r="P48" s="185"/>
-      <c r="Q48" s="185"/>
-      <c r="R48" s="182"/>
-      <c r="S48" s="176"/>
+      <c r="B48" s="174"/>
+      <c r="I48" s="224"/>
+      <c r="J48" s="213"/>
+      <c r="N48" s="183"/>
+      <c r="P48" s="236"/>
+      <c r="Q48" s="236"/>
+      <c r="R48" s="234"/>
+      <c r="S48" s="228"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B49" s="187"/>
-      <c r="I49" s="194"/>
-      <c r="J49" s="210"/>
-      <c r="N49" s="206"/>
-      <c r="P49" s="185"/>
-      <c r="Q49" s="185"/>
-      <c r="R49" s="182"/>
-      <c r="S49" s="176"/>
+      <c r="B49" s="174"/>
+      <c r="I49" s="224"/>
+      <c r="J49" s="213"/>
+      <c r="N49" s="183"/>
+      <c r="P49" s="236"/>
+      <c r="Q49" s="236"/>
+      <c r="R49" s="234"/>
+      <c r="S49" s="228"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B50" s="187"/>
-      <c r="I50" s="194"/>
-      <c r="J50" s="210"/>
-      <c r="N50" s="206"/>
-      <c r="P50" s="185"/>
-      <c r="Q50" s="185"/>
-      <c r="R50" s="183"/>
-      <c r="S50" s="177"/>
+      <c r="B50" s="174"/>
+      <c r="I50" s="224"/>
+      <c r="J50" s="213"/>
+      <c r="N50" s="183"/>
+      <c r="P50" s="236"/>
+      <c r="Q50" s="236"/>
+      <c r="R50" s="235"/>
+      <c r="S50" s="229"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
@@ -8196,54 +8030,48 @@
     <row r="79" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C7:C40"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="F7:H8"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="K7:K22"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="N15:N23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="D7:D18"/>
-    <mergeCell ref="E7:E18"/>
+    <mergeCell ref="S37:S50"/>
+    <mergeCell ref="R9:R36"/>
+    <mergeCell ref="R37:R50"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q34"/>
+    <mergeCell ref="P35:Q36"/>
+    <mergeCell ref="P37:Q50"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="P23:Q24"/>
+    <mergeCell ref="P25:Q26"/>
+    <mergeCell ref="P27:Q28"/>
+    <mergeCell ref="P29:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="P16:Q18"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="P21:Q22"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="P9:Q10"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="S9:S36"/>
+    <mergeCell ref="I34:I50"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="O7:O38"/>
+    <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
     <mergeCell ref="F34:F38"/>
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="N34:N50"/>
@@ -8268,48 +8096,54 @@
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="H25:H26"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="S3:S6"/>
-    <mergeCell ref="P9:Q10"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="S9:S36"/>
-    <mergeCell ref="I34:I50"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="O7:O38"/>
-    <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="S37:S50"/>
-    <mergeCell ref="R9:R36"/>
-    <mergeCell ref="R37:R50"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q34"/>
-    <mergeCell ref="P35:Q36"/>
-    <mergeCell ref="P37:Q50"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="P23:Q24"/>
-    <mergeCell ref="P25:Q26"/>
-    <mergeCell ref="P27:Q28"/>
-    <mergeCell ref="P29:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="P16:Q18"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="P21:Q22"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="N15:N23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="D7:D18"/>
+    <mergeCell ref="E7:E18"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="F7:H8"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="K7:K22"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C7:C40"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8319,7 +8153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44DAF09-F282-EC44-B04E-738C178BF6BF}">
   <dimension ref="B2:U136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
@@ -8344,75 +8178,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="239" t="s">
+      <c r="C2" s="238" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="239" t="s">
+      <c r="D2" s="238" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="242" t="s">
+      <c r="E2" s="241" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
-      <c r="R2" s="248" t="s">
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="243" t="s">
         <v>80</v>
       </c>
-      <c r="S2" s="251" t="s">
+      <c r="S2" s="250" t="s">
         <v>81</v>
       </c>
-      <c r="T2" s="239" t="s">
+      <c r="T2" s="238" t="s">
         <v>82</v>
       </c>
-      <c r="U2" s="239" t="s">
+      <c r="U2" s="238" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="242" t="s">
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="241" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="243"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="243"/>
-      <c r="P3" s="244"/>
-      <c r="Q3" s="244"/>
-      <c r="R3" s="249"/>
-      <c r="S3" s="252"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="246"/>
+      <c r="O3" s="246"/>
+      <c r="P3" s="242"/>
+      <c r="Q3" s="242"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="239"/>
+      <c r="U3" s="239"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="119" t="s">
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="120" t="s">
         <v>86</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -8428,60 +8262,60 @@
         <v>90</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="M4" s="122" t="s">
+        <v>577</v>
+      </c>
+      <c r="N4" s="249" t="s">
+        <v>578</v>
+      </c>
+      <c r="O4" s="249"/>
+      <c r="P4" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="R4" s="244"/>
+      <c r="S4" s="251"/>
+      <c r="T4" s="239"/>
+      <c r="U4" s="239"/>
+    </row>
+    <row r="5" spans="2:21" ht="60" x14ac:dyDescent="0.2">
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="119" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="M4" s="123" t="s">
-        <v>581</v>
-      </c>
-      <c r="N4" s="247" t="s">
-        <v>582</v>
-      </c>
-      <c r="O4" s="247"/>
-      <c r="P4" s="55" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="R4" s="249"/>
-      <c r="S4" s="252"/>
-      <c r="T4" s="240"/>
-      <c r="U4" s="240"/>
-    </row>
-    <row r="5" spans="2:21" ht="60" x14ac:dyDescent="0.2">
-      <c r="B5" s="241"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="120" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="8" t="s">
-        <v>584</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="245" t="s">
-        <v>583</v>
-      </c>
-      <c r="P5" s="246"/>
-      <c r="Q5" s="246"/>
-      <c r="R5" s="250"/>
-      <c r="S5" s="253"/>
-      <c r="T5" s="241"/>
-      <c r="U5" s="241"/>
+      <c r="O5" s="247" t="s">
+        <v>579</v>
+      </c>
+      <c r="P5" s="248"/>
+      <c r="Q5" s="248"/>
+      <c r="R5" s="245"/>
+      <c r="S5" s="252"/>
+      <c r="T5" s="240"/>
+      <c r="U5" s="240"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
@@ -8509,7 +8343,7 @@
     </row>
     <row r="7" spans="2:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>255</v>
@@ -8561,7 +8395,7 @@
         <v>95</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D8" s="54" t="s">
         <v>103</v>
@@ -8605,7 +8439,7 @@
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="28" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>97</v>
@@ -8670,7 +8504,7 @@
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" s="28" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>99</v>
@@ -8780,7 +8614,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>101</v>
@@ -8941,7 +8775,7 @@
     </row>
     <row r="15" spans="2:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>101</v>
@@ -9033,7 +8867,7 @@
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="28" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>97</v>
@@ -9098,7 +8932,7 @@
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" s="28" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>99</v>
@@ -9161,7 +8995,7 @@
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" s="28" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>97</v>
@@ -9393,7 +9227,7 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="28" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>99</v>
@@ -9456,7 +9290,7 @@
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="28" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>101</v>
@@ -9625,7 +9459,7 @@
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="28" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>97</v>
@@ -9845,7 +9679,7 @@
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="28" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>101</v>
@@ -9910,7 +9744,7 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" s="28" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>99</v>
@@ -9963,7 +9797,7 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="28" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>101</v>
@@ -10028,7 +9862,7 @@
     </row>
     <row r="34" spans="2:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="28" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>99</v>
@@ -10081,7 +9915,7 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" s="28" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>101</v>
@@ -10132,7 +9966,7 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="28" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>99</v>
@@ -10177,10 +10011,10 @@
     </row>
     <row r="37" spans="2:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="28" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D37" s="54" t="s">
         <v>103</v>
@@ -10236,7 +10070,7 @@
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="28" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>99</v>
@@ -10380,17 +10214,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="R2:R5"/>
     <mergeCell ref="T2:T5"/>
     <mergeCell ref="U2:U5"/>
     <mergeCell ref="E3:Q3"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="S2:S5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="R2:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
